--- a/outputs-HGR-r202/test-g__Acidaminococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Acidaminococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Row</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>even_MAG-GUT29476.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29878.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT31785.fa</t>
@@ -541,7 +544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -560,28 +563,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -1343,25 +1346,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.52298625164773782</v>
+        <v>0.41122728570625461</v>
       </c>
       <c r="C28">
-        <v>0.0054801432237856079</v>
+        <v>0.036306042252843132</v>
       </c>
       <c r="D28">
-        <v>0.0037930996131466973</v>
+        <v>0.0038429341755296148</v>
       </c>
       <c r="E28">
-        <v>0.053913198201228869</v>
+        <v>0.36987151230636517</v>
       </c>
       <c r="F28">
-        <v>0.33543343028367445</v>
+        <v>0.007970417349150655</v>
       </c>
       <c r="G28">
-        <v>0.069003862066544311</v>
+        <v>0.0038429341755296131</v>
       </c>
       <c r="H28">
-        <v>0.0093900149638820422</v>
+        <v>0.16693887403432719</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1372,28 +1375,28 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2.2199581303837271e-14</v>
+        <v>0.52298625164773782</v>
       </c>
       <c r="C29">
-        <v>0.0048048178015502865</v>
+        <v>0.0054801432237856079</v>
       </c>
       <c r="D29">
-        <v>2.2199581303837271e-14</v>
+        <v>0.0037930996131466973</v>
       </c>
       <c r="E29">
-        <v>0.021467490375065661</v>
+        <v>0.053913198201228869</v>
       </c>
       <c r="F29">
-        <v>0.97300329244182393</v>
+        <v>0.33543343028367445</v>
       </c>
       <c r="G29">
-        <v>2.2199581303837271e-14</v>
+        <v>0.069003862066544311</v>
       </c>
       <c r="H29">
-        <v>0.00072439938149357341</v>
+        <v>0.0093900149638820422</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1401,28 +1404,28 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.42861416939164559</v>
+        <v>2.2199581303837271e-14</v>
       </c>
       <c r="C30">
-        <v>0.005846710797809229</v>
+        <v>0.0048048178015502865</v>
       </c>
       <c r="D30">
-        <v>0.0040899826170676225</v>
+        <v>2.2199581303837271e-14</v>
       </c>
       <c r="E30">
-        <v>0.066717285581882502</v>
+        <v>0.021467490375065661</v>
       </c>
       <c r="F30">
-        <v>0.47672109064941348</v>
+        <v>0.97300329244182393</v>
       </c>
       <c r="G30">
-        <v>0.0040899826170676251</v>
+        <v>2.2199581303837271e-14</v>
       </c>
       <c r="H30">
-        <v>0.013920778345113986</v>
+        <v>0.00072439938149357341</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1430,25 +1433,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.72228371461849594</v>
+        <v>0.42861416939164559</v>
       </c>
       <c r="C31">
-        <v>0.073533801315874156</v>
+        <v>0.005846710797809229</v>
       </c>
       <c r="D31">
-        <v>0.0039253118995990748</v>
+        <v>0.0040899826170676225</v>
       </c>
       <c r="E31">
-        <v>0.087532374538411978</v>
+        <v>0.066717285581882502</v>
       </c>
       <c r="F31">
-        <v>0.01217796971298659</v>
+        <v>0.47672109064941348</v>
       </c>
       <c r="G31">
-        <v>0.0039253118995990679</v>
+        <v>0.0040899826170676251</v>
       </c>
       <c r="H31">
-        <v>0.096621516015033146</v>
+        <v>0.013920778345113986</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1459,28 +1462,28 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.220090670076376e-14</v>
+        <v>0.72228371461849594</v>
       </c>
       <c r="C32">
-        <v>0.0034431448286859675</v>
+        <v>0.073533801315874156</v>
       </c>
       <c r="D32">
-        <v>2.220090670076376e-14</v>
+        <v>0.0039253118995990748</v>
       </c>
       <c r="E32">
-        <v>0.021637682432490306</v>
+        <v>0.087532374538411978</v>
       </c>
       <c r="F32">
-        <v>0.97470064710788007</v>
+        <v>0.01217796971298659</v>
       </c>
       <c r="G32">
-        <v>2.220090670076376e-14</v>
+        <v>0.0039253118995990679</v>
       </c>
       <c r="H32">
-        <v>0.00021852563087688436</v>
+        <v>0.096621516015033146</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1488,25 +1491,25 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.2201015542869008e-14</v>
+        <v>2.220090670076376e-14</v>
       </c>
       <c r="C33">
-        <v>0.0064053602389148772</v>
+        <v>0.0034431448286859675</v>
       </c>
       <c r="D33">
-        <v>2.2201015542869008e-14</v>
+        <v>2.220090670076376e-14</v>
       </c>
       <c r="E33">
-        <v>0.023661580878521927</v>
+        <v>0.021637682432490306</v>
       </c>
       <c r="F33">
-        <v>0.96957225269357483</v>
+        <v>0.97470064710788007</v>
       </c>
       <c r="G33">
-        <v>2.2201015542869008e-14</v>
+        <v>2.220090670076376e-14</v>
       </c>
       <c r="H33">
-        <v>0.00036080618892182559</v>
+        <v>0.00021852563087688436</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -1517,25 +1520,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.2202433563072064e-14</v>
+        <v>2.2201015542869008e-14</v>
       </c>
       <c r="C34">
-        <v>0.004851819669952147</v>
+        <v>0.0064053602389148772</v>
       </c>
       <c r="D34">
-        <v>2.2202433563072064e-14</v>
+        <v>2.2201015542869008e-14</v>
       </c>
       <c r="E34">
-        <v>0.012741225837695396</v>
+        <v>0.023661580878521927</v>
       </c>
       <c r="F34">
-        <v>0.98187671419804223</v>
+        <v>0.96957225269357483</v>
       </c>
       <c r="G34">
-        <v>2.2202433563072064e-14</v>
+        <v>2.2201015542869008e-14</v>
       </c>
       <c r="H34">
-        <v>0.00053024029424358096</v>
+        <v>0.00036080618892182559</v>
       </c>
       <c r="I34">
         <v>5</v>
@@ -1546,25 +1549,25 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.223598107947635e-14</v>
+        <v>2.2202433563072064e-14</v>
       </c>
       <c r="C35">
-        <v>0.0095597142278362208</v>
+        <v>0.004851819669952147</v>
       </c>
       <c r="D35">
-        <v>2.2237152385972049e-14</v>
+        <v>2.2202433563072064e-14</v>
       </c>
       <c r="E35">
-        <v>0.020370011239386882</v>
+        <v>0.012741225837695396</v>
       </c>
       <c r="F35">
-        <v>0.96906356898495949</v>
+        <v>0.98187671419804223</v>
       </c>
       <c r="G35">
-        <v>2.2237152385972043e-14</v>
+        <v>2.2202433563072064e-14</v>
       </c>
       <c r="H35">
-        <v>0.0010067055477507071</v>
+        <v>0.00053024029424358096</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -1575,25 +1578,25 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2.2199818641146951e-14</v>
+        <v>2.223598107947635e-14</v>
       </c>
       <c r="C36">
-        <v>0.0013352272390047485</v>
+        <v>0.0095597142278362208</v>
       </c>
       <c r="D36">
-        <v>2.2199818641146951e-14</v>
+        <v>2.2237152385972049e-14</v>
       </c>
       <c r="E36">
-        <v>0.014465933508093028</v>
+        <v>0.020370011239386882</v>
       </c>
       <c r="F36">
-        <v>0.98394832409280586</v>
+        <v>0.96906356898495949</v>
       </c>
       <c r="G36">
-        <v>2.2199818641146951e-14</v>
+        <v>2.2237152385972043e-14</v>
       </c>
       <c r="H36">
-        <v>0.00025051516002972139</v>
+        <v>0.0010067055477507071</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -1604,25 +1607,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3.4891852049057895e-14</v>
+        <v>2.2199818641146951e-14</v>
       </c>
       <c r="C37">
-        <v>0.0048777510422439449</v>
+        <v>0.0013352272390047485</v>
       </c>
       <c r="D37">
-        <v>3.7825916843226218e-14</v>
+        <v>2.2199818641146951e-14</v>
       </c>
       <c r="E37">
-        <v>0.022981201894076396</v>
+        <v>0.014465933508093028</v>
       </c>
       <c r="F37">
-        <v>0.97111696613833121</v>
+        <v>0.98394832409280586</v>
       </c>
       <c r="G37">
-        <v>3.7825916843226212e-14</v>
+        <v>2.2199818641146951e-14</v>
       </c>
       <c r="H37">
-        <v>0.0010240809252378348</v>
+        <v>0.00025051516002972139</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -1633,25 +1636,25 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2.2203184126834164e-14</v>
+        <v>3.4891852049057895e-14</v>
       </c>
       <c r="C38">
-        <v>0.0080702700457507669</v>
+        <v>0.0048777510422439449</v>
       </c>
       <c r="D38">
-        <v>2.2203184126834164e-14</v>
+        <v>3.7825916843226218e-14</v>
       </c>
       <c r="E38">
-        <v>0.016416065453056111</v>
+        <v>0.022981201894076396</v>
       </c>
       <c r="F38">
-        <v>0.97507761198133758</v>
+        <v>0.97111696613833121</v>
       </c>
       <c r="G38">
-        <v>2.2203184126834164e-14</v>
+        <v>3.7825916843226212e-14</v>
       </c>
       <c r="H38">
-        <v>0.00043605251978898397</v>
+        <v>0.0010240809252378348</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -1662,25 +1665,25 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.2199932665632854e-14</v>
+        <v>2.2203184126834164e-14</v>
       </c>
       <c r="C39">
-        <v>0.0012669842256816969</v>
+        <v>0.0080702700457507669</v>
       </c>
       <c r="D39">
-        <v>2.2199932665632854e-14</v>
+        <v>2.2203184126834164e-14</v>
       </c>
       <c r="E39">
-        <v>0.014171932547875573</v>
+        <v>0.016416065453056111</v>
       </c>
       <c r="F39">
-        <v>0.98430068642384927</v>
+        <v>0.97507761198133758</v>
       </c>
       <c r="G39">
-        <v>2.2199932665632854e-14</v>
+        <v>2.2203184126834164e-14</v>
       </c>
       <c r="H39">
-        <v>0.00026039680252679971</v>
+        <v>0.00043605251978898397</v>
       </c>
       <c r="I39">
         <v>5</v>
@@ -1691,25 +1694,25 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2.2199965206886443e-14</v>
+        <v>2.2199932665632854e-14</v>
       </c>
       <c r="C40">
-        <v>0.0024134437708681943</v>
+        <v>0.0012669842256816969</v>
       </c>
       <c r="D40">
-        <v>2.2199965206886443e-14</v>
+        <v>2.2199932665632854e-14</v>
       </c>
       <c r="E40">
-        <v>0.01979645588621258</v>
+        <v>0.014171932547875573</v>
       </c>
       <c r="F40">
-        <v>0.97750482183462017</v>
+        <v>0.98430068642384927</v>
       </c>
       <c r="G40">
-        <v>2.2199965206886443e-14</v>
+        <v>2.2199932665632854e-14</v>
       </c>
       <c r="H40">
-        <v>0.00028527850823247366</v>
+        <v>0.00026039680252679971</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -1720,25 +1723,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.2199252527974404e-14</v>
+        <v>2.2199965206886443e-14</v>
       </c>
       <c r="C41">
-        <v>0.0073456234899244447</v>
+        <v>0.0024134437708681943</v>
       </c>
       <c r="D41">
-        <v>2.2199252527974404e-14</v>
+        <v>2.2199965206886443e-14</v>
       </c>
       <c r="E41">
-        <v>0.020229496168711763</v>
+        <v>0.01979645588621258</v>
       </c>
       <c r="F41">
-        <v>0.97194626857719291</v>
+        <v>0.97750482183462017</v>
       </c>
       <c r="G41">
-        <v>2.2199252527974404e-14</v>
+        <v>2.2199965206886443e-14</v>
       </c>
       <c r="H41">
-        <v>0.00047861176410425864</v>
+        <v>0.00028527850823247366</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -1749,25 +1752,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2.2200304948285584e-14</v>
+        <v>2.2199252527974404e-14</v>
       </c>
       <c r="C42">
-        <v>0.0015936724767515839</v>
+        <v>0.0073456234899244447</v>
       </c>
       <c r="D42">
-        <v>2.2200304948285584e-14</v>
+        <v>2.2199252527974404e-14</v>
       </c>
       <c r="E42">
-        <v>0.012577016337009535</v>
+        <v>0.020229496168711763</v>
       </c>
       <c r="F42">
-        <v>0.98513976371680201</v>
+        <v>0.97194626857719291</v>
       </c>
       <c r="G42">
-        <v>2.2200304948285584e-14</v>
+        <v>2.2199252527974404e-14</v>
       </c>
       <c r="H42">
-        <v>0.00068954746937042273</v>
+        <v>0.00047861176410425864</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -1778,25 +1781,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2.3484217332606101e-14</v>
+        <v>2.2200304948285584e-14</v>
       </c>
       <c r="C43">
-        <v>0.012285918628516078</v>
+        <v>0.0015936724767515839</v>
       </c>
       <c r="D43">
-        <v>2.3698408475665823e-14</v>
+        <v>2.2200304948285584e-14</v>
       </c>
       <c r="E43">
-        <v>0.021023824934451641</v>
+        <v>0.012577016337009535</v>
       </c>
       <c r="F43">
-        <v>0.96578322573991426</v>
+        <v>0.98513976371680201</v>
       </c>
       <c r="G43">
-        <v>2.369840847566583e-14</v>
+        <v>2.2200304948285584e-14</v>
       </c>
       <c r="H43">
-        <v>0.00090703069704721072</v>
+        <v>0.00068954746937042273</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -1807,25 +1810,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2.4789070240303892e-14</v>
+        <v>2.3484217332606101e-14</v>
       </c>
       <c r="C44">
-        <v>0.0090493441143897884</v>
+        <v>0.012285918628516078</v>
       </c>
       <c r="D44">
-        <v>2.5261393117299498e-14</v>
+        <v>2.3698408475665823e-14</v>
       </c>
       <c r="E44">
-        <v>0.021860266303224886</v>
+        <v>0.021023824934451641</v>
       </c>
       <c r="F44">
-        <v>0.96812341170066329</v>
+        <v>0.96578322573991426</v>
       </c>
       <c r="G44">
-        <v>2.5261393117299486e-14</v>
+        <v>2.369840847566583e-14</v>
       </c>
       <c r="H44">
-        <v>0.00096697788164662815</v>
+        <v>0.00090703069704721072</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -1836,25 +1839,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2.220207847103879e-14</v>
+        <v>2.4789070240303892e-14</v>
       </c>
       <c r="C45">
-        <v>0.0035052406056487518</v>
+        <v>0.0090493441143897884</v>
       </c>
       <c r="D45">
-        <v>2.220207847103879e-14</v>
+        <v>2.5261393117299498e-14</v>
       </c>
       <c r="E45">
-        <v>0.011089951630262704</v>
+        <v>0.021860266303224886</v>
       </c>
       <c r="F45">
-        <v>0.98482243508808376</v>
+        <v>0.96812341170066329</v>
       </c>
       <c r="G45">
-        <v>2.220207847103879e-14</v>
+        <v>2.5261393117299486e-14</v>
       </c>
       <c r="H45">
-        <v>0.00058237267593820694</v>
+        <v>0.00096697788164662815</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -1865,25 +1868,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2.2200630165439224e-14</v>
+        <v>2.220207847103879e-14</v>
       </c>
       <c r="C46">
-        <v>0.0043277541456833513</v>
+        <v>0.0035052406056487518</v>
       </c>
       <c r="D46">
-        <v>2.2200630165439224e-14</v>
+        <v>2.220207847103879e-14</v>
       </c>
       <c r="E46">
-        <v>0.021847931244069183</v>
+        <v>0.011089951630262704</v>
       </c>
       <c r="F46">
-        <v>0.97305678780793514</v>
+        <v>0.98482243508808376</v>
       </c>
       <c r="G46">
-        <v>2.2200630165439224e-14</v>
+        <v>2.220207847103879e-14</v>
       </c>
       <c r="H46">
-        <v>0.00076752680224556125</v>
+        <v>0.00058237267593820694</v>
       </c>
       <c r="I46">
         <v>5</v>
@@ -1894,25 +1897,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.2199378205638353e-14</v>
+        <v>2.2200630165439224e-14</v>
       </c>
       <c r="C47">
-        <v>0.011757684453665164</v>
+        <v>0.0043277541456833513</v>
       </c>
       <c r="D47">
-        <v>2.2199378205638353e-14</v>
+        <v>2.2200630165439224e-14</v>
       </c>
       <c r="E47">
-        <v>0.032319511537024906</v>
+        <v>0.021847931244069183</v>
       </c>
       <c r="F47">
-        <v>0.95402017552348239</v>
+        <v>0.97305678780793514</v>
       </c>
       <c r="G47">
-        <v>2.2199378205638353e-14</v>
+        <v>2.2200630165439224e-14</v>
       </c>
       <c r="H47">
-        <v>0.0019026284857609969</v>
+        <v>0.00076752680224556125</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -1923,25 +1926,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2.4789070240303892e-14</v>
+        <v>2.2199378205638353e-14</v>
       </c>
       <c r="C48">
-        <v>0.0090493441143897884</v>
+        <v>0.011757684453665164</v>
       </c>
       <c r="D48">
-        <v>2.5261393117299498e-14</v>
+        <v>2.2199378205638353e-14</v>
       </c>
       <c r="E48">
-        <v>0.021860266303224886</v>
+        <v>0.032319511537024906</v>
       </c>
       <c r="F48">
-        <v>0.96812341170066329</v>
+        <v>0.95402017552348239</v>
       </c>
       <c r="G48">
-        <v>2.5261393117299486e-14</v>
+        <v>2.2199378205638353e-14</v>
       </c>
       <c r="H48">
-        <v>0.00096697788164662815</v>
+        <v>0.0019026284857609969</v>
       </c>
       <c r="I48">
         <v>5</v>
@@ -1952,25 +1955,25 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2.220072761291674e-14</v>
+        <v>2.4789070240303892e-14</v>
       </c>
       <c r="C49">
-        <v>0.0063665607102519877</v>
+        <v>0.0090493441143897884</v>
       </c>
       <c r="D49">
-        <v>2.220072761291674e-14</v>
+        <v>2.5261393117299498e-14</v>
       </c>
       <c r="E49">
-        <v>0.022781563249216118</v>
+        <v>0.021860266303224886</v>
       </c>
       <c r="F49">
-        <v>0.97004849366490919</v>
+        <v>0.96812341170066329</v>
       </c>
       <c r="G49">
-        <v>2.220072761291674e-14</v>
+        <v>2.5261393117299486e-14</v>
       </c>
       <c r="H49">
-        <v>0.00080338237555621314</v>
+        <v>0.00096697788164662815</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -1981,25 +1984,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.220327848975352e-14</v>
+        <v>2.220072761291674e-14</v>
       </c>
       <c r="C50">
-        <v>0.0062460952379896593</v>
+        <v>0.0063665607102519877</v>
       </c>
       <c r="D50">
-        <v>2.220327848975352e-14</v>
+        <v>2.220072761291674e-14</v>
       </c>
       <c r="E50">
-        <v>0.012847288639394364</v>
+        <v>0.022781563249216118</v>
       </c>
       <c r="F50">
-        <v>0.98036103981443112</v>
+        <v>0.97004849366490919</v>
       </c>
       <c r="G50">
-        <v>2.220327848975352e-14</v>
+        <v>2.220072761291674e-14</v>
       </c>
       <c r="H50">
-        <v>0.00054557630811826266</v>
+        <v>0.00080338237555621314</v>
       </c>
       <c r="I50">
         <v>5</v>
@@ -2010,25 +2013,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.024399714132118517</v>
+        <v>2.220327848975352e-14</v>
       </c>
       <c r="C51">
-        <v>0.01038194566836336</v>
+        <v>0.0062460952379896593</v>
       </c>
       <c r="D51">
-        <v>0.0024595562776358743</v>
+        <v>2.220327848975352e-14</v>
       </c>
       <c r="E51">
-        <v>0.021362160241106456</v>
+        <v>0.012847288639394364</v>
       </c>
       <c r="F51">
-        <v>0.93602684842557282</v>
+        <v>0.98036103981443112</v>
       </c>
       <c r="G51">
-        <v>0.0024595562776361566</v>
+        <v>2.220327848975352e-14</v>
       </c>
       <c r="H51">
-        <v>0.0029102189775668461</v>
+        <v>0.00054557630811826266</v>
       </c>
       <c r="I51">
         <v>5</v>
@@ -2039,25 +2042,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.029325067931595897</v>
+        <v>0.024399714132118517</v>
       </c>
       <c r="C52">
-        <v>0.012864874431743318</v>
+        <v>0.01038194566836336</v>
       </c>
       <c r="D52">
-        <v>0.0027279148785258989</v>
+        <v>0.0024595562776358743</v>
       </c>
       <c r="E52">
-        <v>0.018296965915122192</v>
+        <v>0.021362160241106456</v>
       </c>
       <c r="F52">
-        <v>0.93064562141991436</v>
+        <v>0.93602684842557282</v>
       </c>
       <c r="G52">
-        <v>0.0027279148785258984</v>
+        <v>0.0024595562776361566</v>
       </c>
       <c r="H52">
-        <v>0.0034116405445723378</v>
+        <v>0.0029102189775668461</v>
       </c>
       <c r="I52">
         <v>5</v>
@@ -2068,25 +2071,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2.2201385006730116e-14</v>
+        <v>0.029325067931595897</v>
       </c>
       <c r="C53">
-        <v>0.0033335689533597708</v>
+        <v>0.012864874431743318</v>
       </c>
       <c r="D53">
-        <v>2.2201385006730116e-14</v>
+        <v>0.0027279148785258989</v>
       </c>
       <c r="E53">
-        <v>0.015362315155569012</v>
+        <v>0.018296965915122192</v>
       </c>
       <c r="F53">
-        <v>0.98087099894005136</v>
+        <v>0.93064562141991436</v>
       </c>
       <c r="G53">
-        <v>2.2201385006730116e-14</v>
+        <v>0.0027279148785258984</v>
       </c>
       <c r="H53">
-        <v>0.00043311695095315297</v>
+        <v>0.0034116405445723378</v>
       </c>
       <c r="I53">
         <v>5</v>
@@ -2097,25 +2100,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.6800859299959339e-14</v>
+        <v>2.2201385006730116e-14</v>
       </c>
       <c r="C54">
-        <v>0.0055089295731272706</v>
+        <v>0.0033335689533597708</v>
       </c>
       <c r="D54">
-        <v>2.7693949379486936e-14</v>
+        <v>2.2201385006730116e-14</v>
       </c>
       <c r="E54">
-        <v>0.018777545540216989</v>
+        <v>0.015362315155569012</v>
       </c>
       <c r="F54">
-        <v>0.97523324006556356</v>
+        <v>0.98087099894005136</v>
       </c>
       <c r="G54">
-        <v>2.7693949379486927e-14</v>
+        <v>2.2201385006730116e-14</v>
       </c>
       <c r="H54">
-        <v>0.00048028482101003452</v>
+        <v>0.00043311695095315297</v>
       </c>
       <c r="I54">
         <v>5</v>
@@ -2126,25 +2129,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.2204421408873838e-14</v>
+        <v>2.6800859299959339e-14</v>
       </c>
       <c r="C55">
-        <v>0.0026306056746396517</v>
+        <v>0.0055089295731272706</v>
       </c>
       <c r="D55">
-        <v>2.2204421408873838e-14</v>
+        <v>2.7693949379486936e-14</v>
       </c>
       <c r="E55">
-        <v>0.022096177665480859</v>
+        <v>0.018777545540216989</v>
       </c>
       <c r="F55">
-        <v>0.97465022300665682</v>
+        <v>0.97523324006556356</v>
       </c>
       <c r="G55">
-        <v>2.2204421408873838e-14</v>
+        <v>2.7693949379486927e-14</v>
       </c>
       <c r="H55">
-        <v>0.00062299365315612051</v>
+        <v>0.00048028482101003452</v>
       </c>
       <c r="I55">
         <v>5</v>
@@ -2155,25 +2158,25 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.2202029055350359e-14</v>
+        <v>2.2204421408873838e-14</v>
       </c>
       <c r="C56">
-        <v>0.0039229452491394146</v>
+        <v>0.0026306056746396517</v>
       </c>
       <c r="D56">
-        <v>2.2202029055350359e-14</v>
+        <v>2.2204421408873838e-14</v>
       </c>
       <c r="E56">
-        <v>0.011995883536769607</v>
+        <v>0.022096177665480859</v>
       </c>
       <c r="F56">
-        <v>0.98344332587579752</v>
+        <v>0.97465022300665682</v>
       </c>
       <c r="G56">
-        <v>2.2202029055350359e-14</v>
+        <v>2.2204421408873838e-14</v>
       </c>
       <c r="H56">
-        <v>0.00063784533822695052</v>
+        <v>0.00062299365315612051</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -2184,25 +2187,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.083524275499724299</v>
+        <v>2.2202029055350359e-14</v>
       </c>
       <c r="C57">
-        <v>0.011210961541717227</v>
+        <v>0.0039229452491394146</v>
       </c>
       <c r="D57">
-        <v>0.0038477100132336957</v>
+        <v>2.2202029055350359e-14</v>
       </c>
       <c r="E57">
-        <v>0.060371386896484143</v>
+        <v>0.011995883536769607</v>
       </c>
       <c r="F57">
-        <v>0.83303202952838584</v>
+        <v>0.98344332587579752</v>
       </c>
       <c r="G57">
-        <v>0.0038477100132336913</v>
+        <v>2.2202029055350359e-14</v>
       </c>
       <c r="H57">
-        <v>0.0041659265072209895</v>
+        <v>0.00063784533822695052</v>
       </c>
       <c r="I57">
         <v>5</v>
@@ -2213,25 +2216,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.7824875017235634e-14</v>
+        <v>0.083524275499724299</v>
       </c>
       <c r="C58">
-        <v>0.012672690076660519</v>
+        <v>0.011210961541717227</v>
       </c>
       <c r="D58">
-        <v>2.8968442280032032e-14</v>
+        <v>0.0038477100132336957</v>
       </c>
       <c r="E58">
-        <v>0.031400025247302982</v>
+        <v>0.060371386896484143</v>
       </c>
       <c r="F58">
-        <v>0.95488832194685636</v>
+        <v>0.83303202952838584</v>
       </c>
       <c r="G58">
-        <v>2.8968442280032051e-14</v>
+        <v>0.0038477100132336913</v>
       </c>
       <c r="H58">
-        <v>0.0010389627290942809</v>
+        <v>0.0041659265072209895</v>
       </c>
       <c r="I58">
         <v>5</v>
@@ -2242,25 +2245,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2.2202028992207717e-14</v>
+        <v>2.7824875017235634e-14</v>
       </c>
       <c r="C59">
-        <v>0.0061374071405269391</v>
+        <v>0.012672690076660519</v>
       </c>
       <c r="D59">
-        <v>2.2202028992207717e-14</v>
+        <v>2.8968442280032032e-14</v>
       </c>
       <c r="E59">
-        <v>0.017085897699635935</v>
+        <v>0.031400025247302982</v>
       </c>
       <c r="F59">
-        <v>0.97605615382226274</v>
+        <v>0.95488832194685636</v>
       </c>
       <c r="G59">
-        <v>2.2202028992207717e-14</v>
+        <v>2.8968442280032051e-14</v>
       </c>
       <c r="H59">
-        <v>0.00072054133750773617</v>
+        <v>0.0010389627290942809</v>
       </c>
       <c r="I59">
         <v>5</v>
@@ -2271,25 +2274,25 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3.1396385575742784e-14</v>
+        <v>2.2202028992207717e-14</v>
       </c>
       <c r="C60">
-        <v>0.010300676535574111</v>
+        <v>0.0061374071405269391</v>
       </c>
       <c r="D60">
-        <v>3.3406639995885603e-14</v>
+        <v>2.2202028992207717e-14</v>
       </c>
       <c r="E60">
-        <v>0.031938745820580469</v>
+        <v>0.017085897699635935</v>
       </c>
       <c r="F60">
-        <v>0.95710468001745053</v>
+        <v>0.97605615382226274</v>
       </c>
       <c r="G60">
-        <v>3.3406639995885597e-14</v>
+        <v>2.2202028992207717e-14</v>
       </c>
       <c r="H60">
-        <v>0.00065589762629672012</v>
+        <v>0.00072054133750773617</v>
       </c>
       <c r="I60">
         <v>5</v>
@@ -2300,25 +2303,25 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2.3484217332606101e-14</v>
+        <v>3.1396385575742784e-14</v>
       </c>
       <c r="C61">
-        <v>0.012285918628516078</v>
+        <v>0.010300676535574111</v>
       </c>
       <c r="D61">
-        <v>2.3698408475665823e-14</v>
+        <v>3.3406639995885603e-14</v>
       </c>
       <c r="E61">
-        <v>0.021023824934451641</v>
+        <v>0.031938745820580469</v>
       </c>
       <c r="F61">
-        <v>0.96578322573991426</v>
+        <v>0.95710468001745053</v>
       </c>
       <c r="G61">
-        <v>2.369840847566583e-14</v>
+        <v>3.3406639995885597e-14</v>
       </c>
       <c r="H61">
-        <v>0.00090703069704721072</v>
+        <v>0.00065589762629672012</v>
       </c>
       <c r="I61">
         <v>5</v>
@@ -2329,25 +2332,25 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2.2199939079544289e-14</v>
+        <v>2.3484217332606101e-14</v>
       </c>
       <c r="C62">
-        <v>0.0072674950316033819</v>
+        <v>0.012285918628516078</v>
       </c>
       <c r="D62">
-        <v>2.2199939079544289e-14</v>
+        <v>2.3698408475665823e-14</v>
       </c>
       <c r="E62">
-        <v>0.015676270629749946</v>
+        <v>0.021023824934451641</v>
       </c>
       <c r="F62">
-        <v>0.97616612824072191</v>
+        <v>0.96578322573991426</v>
       </c>
       <c r="G62">
-        <v>2.2199939079544289e-14</v>
+        <v>2.369840847566583e-14</v>
       </c>
       <c r="H62">
-        <v>0.00089010609785810562</v>
+        <v>0.00090703069704721072</v>
       </c>
       <c r="I62">
         <v>5</v>
@@ -2358,25 +2361,25 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2.2202037014612227e-14</v>
+        <v>2.2199939079544289e-14</v>
       </c>
       <c r="C63">
-        <v>0.0033132164953680742</v>
+        <v>0.0072674950316033819</v>
       </c>
       <c r="D63">
-        <v>2.2202037014612227e-14</v>
+        <v>2.2199939079544289e-14</v>
       </c>
       <c r="E63">
-        <v>0.0096974924654416473</v>
+        <v>0.015676270629749946</v>
       </c>
       <c r="F63">
-        <v>0.98639161743237902</v>
+        <v>0.97616612824072191</v>
       </c>
       <c r="G63">
-        <v>2.2202037014612227e-14</v>
+        <v>2.2199939079544289e-14</v>
       </c>
       <c r="H63">
-        <v>0.00059767360674469925</v>
+        <v>0.00089010609785810562</v>
       </c>
       <c r="I63">
         <v>5</v>
@@ -2387,25 +2390,25 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.2201848295836346e-14</v>
+        <v>2.2202037014612227e-14</v>
       </c>
       <c r="C64">
-        <v>0.0061037955578207544</v>
+        <v>0.0033132164953680742</v>
       </c>
       <c r="D64">
-        <v>2.2201848295836346e-14</v>
+        <v>2.2202037014612227e-14</v>
       </c>
       <c r="E64">
-        <v>0.012398491571829868</v>
+        <v>0.0096974924654416473</v>
       </c>
       <c r="F64">
-        <v>0.98067773280224779</v>
+        <v>0.98639161743237902</v>
       </c>
       <c r="G64">
-        <v>2.2201848295836346e-14</v>
+        <v>2.2202037014612227e-14</v>
       </c>
       <c r="H64">
-        <v>0.00081998006803485173</v>
+        <v>0.00059767360674469925</v>
       </c>
       <c r="I64">
         <v>5</v>
@@ -2416,25 +2419,25 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.026467048460622578</v>
+        <v>2.2201848295836346e-14</v>
       </c>
       <c r="C65">
-        <v>0.0044884621657180473</v>
+        <v>0.0061037955578207544</v>
       </c>
       <c r="D65">
-        <v>0.0027513813424333553</v>
+        <v>2.2201848295836346e-14</v>
       </c>
       <c r="E65">
-        <v>0.024750997825933201</v>
+        <v>0.012398491571829868</v>
       </c>
       <c r="F65">
-        <v>0.9357153623371588</v>
+        <v>0.98067773280224779</v>
       </c>
       <c r="G65">
-        <v>0.0027513813424333549</v>
+        <v>2.2201848295836346e-14</v>
       </c>
       <c r="H65">
-        <v>0.0030753665257006379</v>
+        <v>0.00081998006803485173</v>
       </c>
       <c r="I65">
         <v>5</v>
@@ -2445,25 +2448,25 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2.2199754528139864e-14</v>
+        <v>0.026467048460622578</v>
       </c>
       <c r="C66">
-        <v>0.0018228562867287311</v>
+        <v>0.0044884621657180473</v>
       </c>
       <c r="D66">
-        <v>2.2199754528139864e-14</v>
+        <v>0.0027513813424333553</v>
       </c>
       <c r="E66">
-        <v>0.01219593196128347</v>
+        <v>0.024750997825933201</v>
       </c>
       <c r="F66">
-        <v>0.9857027285100175</v>
+        <v>0.9357153623371588</v>
       </c>
       <c r="G66">
-        <v>2.2199754528139864e-14</v>
+        <v>0.0027513813424333549</v>
       </c>
       <c r="H66">
-        <v>0.00027848324190368691</v>
+        <v>0.0030753665257006379</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -2474,25 +2477,25 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2.220094754025731e-14</v>
+        <v>2.2199754528139864e-14</v>
       </c>
       <c r="C67">
-        <v>0.0044641131428858529</v>
+        <v>0.0018228562867287311</v>
       </c>
       <c r="D67">
-        <v>2.220094754025731e-14</v>
+        <v>2.2199754528139864e-14</v>
       </c>
       <c r="E67">
-        <v>0.037518481275760733</v>
+        <v>0.01219593196128347</v>
       </c>
       <c r="F67">
-        <v>0.95740367671487792</v>
+        <v>0.9857027285100175</v>
       </c>
       <c r="G67">
-        <v>2.220094754025731e-14</v>
+        <v>2.2199754528139864e-14</v>
       </c>
       <c r="H67">
-        <v>0.00061372886640903991</v>
+        <v>0.00027848324190368691</v>
       </c>
       <c r="I67">
         <v>5</v>
@@ -2503,25 +2506,25 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2.7229327793396899e-14</v>
+        <v>2.220094754025731e-14</v>
       </c>
       <c r="C68">
-        <v>0.00381939290048926</v>
+        <v>0.0044641131428858529</v>
       </c>
       <c r="D68">
-        <v>2.8230983774548661e-14</v>
+        <v>2.220094754025731e-14</v>
       </c>
       <c r="E68">
-        <v>0.034117661431116122</v>
+        <v>0.037518481275760733</v>
       </c>
       <c r="F68">
-        <v>0.96164752413198584</v>
+        <v>0.95740367671487792</v>
       </c>
       <c r="G68">
-        <v>2.8230983774548311e-14</v>
+        <v>2.220094754025731e-14</v>
       </c>
       <c r="H68">
-        <v>0.00041542153632512122</v>
+        <v>0.00061372886640903991</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -2532,25 +2535,25 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2.2236285853353113e-14</v>
+        <v>2.7229327793396899e-14</v>
       </c>
       <c r="C69">
-        <v>0.0046206213979497028</v>
+        <v>0.00381939290048926</v>
       </c>
       <c r="D69">
-        <v>2.2237465084282748e-14</v>
+        <v>2.8230983774548661e-14</v>
       </c>
       <c r="E69">
-        <v>0.020079170099702857</v>
+        <v>0.034117661431116122</v>
       </c>
       <c r="F69">
-        <v>0.97482233290705522</v>
+        <v>0.96164752413198584</v>
       </c>
       <c r="G69">
-        <v>2.2237465084282748e-14</v>
+        <v>2.8230983774548311e-14</v>
       </c>
       <c r="H69">
-        <v>0.00047787559522546787</v>
+        <v>0.00041542153632512122</v>
       </c>
       <c r="I69">
         <v>5</v>
@@ -2561,25 +2564,25 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.9030234974580408e-14</v>
+        <v>2.2236285853353113e-14</v>
       </c>
       <c r="C70">
-        <v>0.0087480098949260839</v>
+        <v>0.0046206213979497028</v>
       </c>
       <c r="D70">
-        <v>3.0450131825821223e-14</v>
+        <v>2.2237465084282748e-14</v>
       </c>
       <c r="E70">
-        <v>0.023376727493623347</v>
+        <v>0.020079170099702857</v>
       </c>
       <c r="F70">
-        <v>0.96691572682441596</v>
+        <v>0.97482233290705522</v>
       </c>
       <c r="G70">
-        <v>3.0450131825821229e-14</v>
+        <v>2.2237465084282748e-14</v>
       </c>
       <c r="H70">
-        <v>0.00095953578694466521</v>
+        <v>0.00047787559522546787</v>
       </c>
       <c r="I70">
         <v>5</v>
@@ -2590,25 +2593,25 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2.2892067788765542e-14</v>
+        <v>2.9030234974580408e-14</v>
       </c>
       <c r="C71">
-        <v>0.0031447705220688758</v>
+        <v>0.0087480098949260839</v>
       </c>
       <c r="D71">
-        <v>2.2992277120896056e-14</v>
+        <v>3.0450131825821223e-14</v>
       </c>
       <c r="E71">
-        <v>0.015507476894000897</v>
+        <v>0.023376727493623347</v>
       </c>
       <c r="F71">
-        <v>0.98105216258662509</v>
+        <v>0.96691572682441596</v>
       </c>
       <c r="G71">
-        <v>2.2992277120896227e-14</v>
+        <v>3.0450131825821229e-14</v>
       </c>
       <c r="H71">
-        <v>0.00029558999723627665</v>
+        <v>0.00095953578694466521</v>
       </c>
       <c r="I71">
         <v>5</v>
@@ -2619,25 +2622,25 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2.220129627398592e-14</v>
+        <v>2.2892067788765542e-14</v>
       </c>
       <c r="C72">
-        <v>0.0038539583234237862</v>
+        <v>0.0031447705220688758</v>
       </c>
       <c r="D72">
-        <v>2.220129627398592e-14</v>
+        <v>2.2992277120896056e-14</v>
       </c>
       <c r="E72">
-        <v>0.015736898033438741</v>
+        <v>0.015507476894000897</v>
       </c>
       <c r="F72">
-        <v>0.97950138813000875</v>
+        <v>0.98105216258662509</v>
       </c>
       <c r="G72">
-        <v>2.220129627398592e-14</v>
+        <v>2.2992277120896227e-14</v>
       </c>
       <c r="H72">
-        <v>0.00090775551306215038</v>
+        <v>0.00029558999723627665</v>
       </c>
       <c r="I72">
         <v>5</v>
@@ -2648,25 +2651,25 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2.2202573163418232e-14</v>
+        <v>2.220129627398592e-14</v>
       </c>
       <c r="C73">
-        <v>0.0056673871421963149</v>
+        <v>0.0038539583234237862</v>
       </c>
       <c r="D73">
-        <v>2.2202573163418232e-14</v>
+        <v>2.220129627398592e-14</v>
       </c>
       <c r="E73">
-        <v>0.014165723972367154</v>
+        <v>0.015736898033438741</v>
       </c>
       <c r="F73">
-        <v>0.97922759213428123</v>
+        <v>0.97950138813000875</v>
       </c>
       <c r="G73">
-        <v>2.2202573163418232e-14</v>
+        <v>2.220129627398592e-14</v>
       </c>
       <c r="H73">
-        <v>0.00093929675108861454</v>
+        <v>0.00090775551306215038</v>
       </c>
       <c r="I73">
         <v>5</v>
@@ -2677,25 +2680,25 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2.2199864740356144e-14</v>
+        <v>2.2202573163418232e-14</v>
       </c>
       <c r="C74">
-        <v>0.0017856722872059514</v>
+        <v>0.0056673871421963149</v>
       </c>
       <c r="D74">
-        <v>2.2199864740356144e-14</v>
+        <v>2.2202573163418232e-14</v>
       </c>
       <c r="E74">
-        <v>0.017734905862777095</v>
+        <v>0.014165723972367154</v>
       </c>
       <c r="F74">
-        <v>0.98017805231384281</v>
+        <v>0.97922759213428123</v>
       </c>
       <c r="G74">
-        <v>2.2199864740356144e-14</v>
+        <v>2.2202573163418232e-14</v>
       </c>
       <c r="H74">
-        <v>0.00030136953610759821</v>
+        <v>0.00093929675108861454</v>
       </c>
       <c r="I74">
         <v>5</v>
@@ -2706,25 +2709,25 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2.3122548694101809e-14</v>
+        <v>2.2199864740356144e-14</v>
       </c>
       <c r="C75">
-        <v>0.0044481521432700663</v>
+        <v>0.0017856722872059514</v>
       </c>
       <c r="D75">
-        <v>2.3262141885752604e-14</v>
+        <v>2.2199864740356144e-14</v>
       </c>
       <c r="E75">
-        <v>0.01299663532919975</v>
+        <v>0.017734905862777095</v>
       </c>
       <c r="F75">
-        <v>0.98191467786688558</v>
+        <v>0.98017805231384281</v>
       </c>
       <c r="G75">
-        <v>2.3262141885752585e-14</v>
+        <v>2.2199864740356144e-14</v>
       </c>
       <c r="H75">
-        <v>0.00064053466057499933</v>
+        <v>0.00030136953610759821</v>
       </c>
       <c r="I75">
         <v>5</v>
@@ -2735,25 +2738,25 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2.2202087718912608e-14</v>
+        <v>2.3122548694101809e-14</v>
       </c>
       <c r="C76">
-        <v>0.0048147894357457935</v>
+        <v>0.0044481521432700663</v>
       </c>
       <c r="D76">
-        <v>2.2202087718912608e-14</v>
+        <v>2.3262141885752604e-14</v>
       </c>
       <c r="E76">
-        <v>0.015112098026198858</v>
+        <v>0.01299663532919975</v>
       </c>
       <c r="F76">
-        <v>0.97964742179081166</v>
+        <v>0.98191467786688558</v>
       </c>
       <c r="G76">
-        <v>2.2202087718912608e-14</v>
+        <v>2.3262141885752585e-14</v>
       </c>
       <c r="H76">
-        <v>0.00042569074717699161</v>
+        <v>0.00064053466057499933</v>
       </c>
       <c r="I76">
         <v>5</v>
@@ -2764,25 +2767,25 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2.2202060659040692e-14</v>
+        <v>2.2202087718912608e-14</v>
       </c>
       <c r="C77">
-        <v>0.0033298810159840498</v>
+        <v>0.0048147894357457935</v>
       </c>
       <c r="D77">
-        <v>2.2202060659040692e-14</v>
+        <v>2.2202087718912608e-14</v>
       </c>
       <c r="E77">
-        <v>0.0086151159366069773</v>
+        <v>0.015112098026198858</v>
       </c>
       <c r="F77">
-        <v>0.98750946259220762</v>
+        <v>0.97964742179081166</v>
       </c>
       <c r="G77">
-        <v>2.2202060659040692e-14</v>
+        <v>2.2202087718912608e-14</v>
       </c>
       <c r="H77">
-        <v>0.00054554045513473476</v>
+        <v>0.00042569074717699161</v>
       </c>
       <c r="I77">
         <v>5</v>
@@ -2793,25 +2796,25 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2.2201648271428041e-14</v>
+        <v>2.2202060659040692e-14</v>
       </c>
       <c r="C78">
-        <v>0.0061427785230430947</v>
+        <v>0.0033298810159840498</v>
       </c>
       <c r="D78">
-        <v>2.2201648271428041e-14</v>
+        <v>2.2202060659040692e-14</v>
       </c>
       <c r="E78">
-        <v>0.015901441817266097</v>
+        <v>0.0086151159366069773</v>
       </c>
       <c r="F78">
-        <v>0.97721705176413365</v>
+        <v>0.98750946259220762</v>
       </c>
       <c r="G78">
-        <v>2.2201648271428041e-14</v>
+        <v>2.2202060659040692e-14</v>
       </c>
       <c r="H78">
-        <v>0.0007387278954905836</v>
+        <v>0.00054554045513473476</v>
       </c>
       <c r="I78">
         <v>5</v>
@@ -2822,25 +2825,25 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.2200500385278784e-14</v>
+        <v>2.2201648271428041e-14</v>
       </c>
       <c r="C79">
-        <v>0.0021557401487093055</v>
+        <v>0.0061427785230430947</v>
       </c>
       <c r="D79">
-        <v>2.2200500385278784e-14</v>
+        <v>2.2201648271428041e-14</v>
       </c>
       <c r="E79">
-        <v>0.0152023404956</v>
+        <v>0.015901441817266097</v>
       </c>
       <c r="F79">
-        <v>0.9823381864247821</v>
+        <v>0.97721705176413365</v>
       </c>
       <c r="G79">
-        <v>2.2200500385278784e-14</v>
+        <v>2.2201648271428041e-14</v>
       </c>
       <c r="H79">
-        <v>0.00030373293084214758</v>
+        <v>0.0007387278954905836</v>
       </c>
       <c r="I79">
         <v>5</v>
@@ -2851,25 +2854,25 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2.2199040653665117e-14</v>
+        <v>2.2200500385278784e-14</v>
       </c>
       <c r="C80">
-        <v>0.00055741986486092883</v>
+        <v>0.0021557401487093055</v>
       </c>
       <c r="D80">
-        <v>2.2199040653665117e-14</v>
+        <v>2.2200500385278784e-14</v>
       </c>
       <c r="E80">
-        <v>0.0089561384590924175</v>
+        <v>0.0152023404956</v>
       </c>
       <c r="F80">
-        <v>0.99017780661155208</v>
+        <v>0.9823381864247821</v>
       </c>
       <c r="G80">
-        <v>2.2199040653665117e-14</v>
+        <v>2.2200500385278784e-14</v>
       </c>
       <c r="H80">
-        <v>0.00030863506442788639</v>
+        <v>0.00030373293084214758</v>
       </c>
       <c r="I80">
         <v>5</v>
@@ -2880,25 +2883,25 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2.220215056977576e-14</v>
+        <v>2.2199040653665117e-14</v>
       </c>
       <c r="C81">
-        <v>0.0034279086424371915</v>
+        <v>0.00055741986486092883</v>
       </c>
       <c r="D81">
-        <v>2.220215056977576e-14</v>
+        <v>2.2199040653665117e-14</v>
       </c>
       <c r="E81">
-        <v>0.01378529816409982</v>
+        <v>0.0089561384590924175</v>
       </c>
       <c r="F81">
-        <v>0.98082678477886731</v>
+        <v>0.99017780661155208</v>
       </c>
       <c r="G81">
-        <v>2.220215056977576e-14</v>
+        <v>2.2199040653665117e-14</v>
       </c>
       <c r="H81">
-        <v>0.001960008414528959</v>
+        <v>0.00030863506442788639</v>
       </c>
       <c r="I81">
         <v>5</v>
@@ -2909,25 +2912,25 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2.220191305139429e-14</v>
+        <v>2.220215056977576e-14</v>
       </c>
       <c r="C82">
-        <v>0.0026657385485183119</v>
+        <v>0.0034279086424371915</v>
       </c>
       <c r="D82">
-        <v>2.220191305139429e-14</v>
+        <v>2.220215056977576e-14</v>
       </c>
       <c r="E82">
-        <v>0.0091427387147415239</v>
+        <v>0.01378529816409982</v>
       </c>
       <c r="F82">
-        <v>0.98715269143319806</v>
+        <v>0.98082678477886731</v>
       </c>
       <c r="G82">
-        <v>2.220191305139429e-14</v>
+        <v>2.220215056977576e-14</v>
       </c>
       <c r="H82">
-        <v>0.0010388313034754935</v>
+        <v>0.001960008414528959</v>
       </c>
       <c r="I82">
         <v>5</v>
@@ -2938,25 +2941,25 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2.220087677823912e-14</v>
+        <v>2.220191305139429e-14</v>
       </c>
       <c r="C83">
-        <v>0.001177012785102253</v>
+        <v>0.0026657385485183119</v>
       </c>
       <c r="D83">
-        <v>2.220087677823912e-14</v>
+        <v>2.220191305139429e-14</v>
       </c>
       <c r="E83">
-        <v>0.012253091798032934</v>
+        <v>0.0091427387147415239</v>
       </c>
       <c r="F83">
-        <v>0.98489148037162144</v>
+        <v>0.98715269143319806</v>
       </c>
       <c r="G83">
-        <v>2.220087677823912e-14</v>
+        <v>2.220191305139429e-14</v>
       </c>
       <c r="H83">
-        <v>0.001678415045176777</v>
+        <v>0.0010388313034754935</v>
       </c>
       <c r="I83">
         <v>5</v>
@@ -2967,25 +2970,25 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2.3228886414459323e-14</v>
+        <v>2.220087677823912e-14</v>
       </c>
       <c r="C84">
-        <v>0.0099853765136312788</v>
+        <v>0.001177012785102253</v>
       </c>
       <c r="D84">
-        <v>2.3392911211003668e-14</v>
+        <v>2.220087677823912e-14</v>
       </c>
       <c r="E84">
-        <v>0.017783271675700152</v>
+        <v>0.012253091798032934</v>
       </c>
       <c r="F84">
-        <v>0.97123083263398235</v>
+        <v>0.98489148037162144</v>
       </c>
       <c r="G84">
-        <v>2.3392911211003664e-14</v>
+        <v>2.220087677823912e-14</v>
       </c>
       <c r="H84">
-        <v>0.0010005191766161929</v>
+        <v>0.001678415045176777</v>
       </c>
       <c r="I84">
         <v>5</v>
@@ -2996,25 +2999,25 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2.2201809533353675e-14</v>
+        <v>2.3228886414459323e-14</v>
       </c>
       <c r="C85">
-        <v>0.0057781070709618226</v>
+        <v>0.0099853765136312788</v>
       </c>
       <c r="D85">
-        <v>2.2201809533353675e-14</v>
+        <v>2.3392911211003668e-14</v>
       </c>
       <c r="E85">
-        <v>0.014207860114104874</v>
+        <v>0.017783271675700152</v>
       </c>
       <c r="F85">
-        <v>0.9794568809377403</v>
+        <v>0.97123083263398235</v>
       </c>
       <c r="G85">
-        <v>2.2201809533353675e-14</v>
+        <v>2.3392911211003664e-14</v>
       </c>
       <c r="H85">
-        <v>0.00055715187712643689</v>
+        <v>0.0010005191766161929</v>
       </c>
       <c r="I85">
         <v>5</v>
@@ -3025,25 +3028,25 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2.2200291920427497e-14</v>
+        <v>2.2201809533353675e-14</v>
       </c>
       <c r="C86">
-        <v>0.0017195889469059575</v>
+        <v>0.0057781070709618226</v>
       </c>
       <c r="D86">
-        <v>2.2200291920427497e-14</v>
+        <v>2.2201809533353675e-14</v>
       </c>
       <c r="E86">
-        <v>0.01269908418421954</v>
+        <v>0.014207860114104874</v>
       </c>
       <c r="F86">
-        <v>0.98529743727842956</v>
+        <v>0.9794568809377403</v>
       </c>
       <c r="G86">
-        <v>2.2200291920427497e-14</v>
+        <v>2.2201809533353675e-14</v>
       </c>
       <c r="H86">
-        <v>0.00028388959037841305</v>
+        <v>0.00055715187712643689</v>
       </c>
       <c r="I86">
         <v>5</v>
@@ -3054,25 +3057,25 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2.2200780507144941e-14</v>
+        <v>2.2200291920427497e-14</v>
       </c>
       <c r="C87">
-        <v>0.0024657494283812473</v>
+        <v>0.0017195889469059575</v>
       </c>
       <c r="D87">
-        <v>2.2200780507144941e-14</v>
+        <v>2.2200291920427497e-14</v>
       </c>
       <c r="E87">
-        <v>0.012636299490301236</v>
+        <v>0.01269908418421954</v>
       </c>
       <c r="F87">
-        <v>0.98453173231935331</v>
+        <v>0.98529743727842956</v>
       </c>
       <c r="G87">
-        <v>2.2200780507144941e-14</v>
+        <v>2.2200291920427497e-14</v>
       </c>
       <c r="H87">
-        <v>0.00036621876189764699</v>
+        <v>0.00028388959037841305</v>
       </c>
       <c r="I87">
         <v>5</v>
@@ -3083,25 +3086,25 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2.2200146501895461e-14</v>
+        <v>2.2200780507144941e-14</v>
       </c>
       <c r="C88">
-        <v>0.0019152414639207779</v>
+        <v>0.0024657494283812473</v>
       </c>
       <c r="D88">
-        <v>2.2200146501895461e-14</v>
+        <v>2.2200780507144941e-14</v>
       </c>
       <c r="E88">
-        <v>0.01611483148602437</v>
+        <v>0.012636299490301236</v>
       </c>
       <c r="F88">
-        <v>0.98172669224952047</v>
+        <v>0.98453173231935331</v>
       </c>
       <c r="G88">
-        <v>2.2200146501895461e-14</v>
+        <v>2.2200780507144941e-14</v>
       </c>
       <c r="H88">
-        <v>0.00024323480046791271</v>
+        <v>0.00036621876189764699</v>
       </c>
       <c r="I88">
         <v>5</v>
@@ -3112,25 +3115,25 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2.2200510913142788e-14</v>
+        <v>2.2200146501895461e-14</v>
       </c>
       <c r="C89">
-        <v>0.0044590001569100278</v>
+        <v>0.0019152414639207779</v>
       </c>
       <c r="D89">
-        <v>2.2200510913142788e-14</v>
+        <v>2.2200146501895461e-14</v>
       </c>
       <c r="E89">
-        <v>0.022023928018301091</v>
+        <v>0.01611483148602437</v>
       </c>
       <c r="F89">
-        <v>0.97295146371514363</v>
+        <v>0.98172669224952047</v>
       </c>
       <c r="G89">
-        <v>2.2200510913142788e-14</v>
+        <v>2.2200146501895461e-14</v>
       </c>
       <c r="H89">
-        <v>0.00056560810957863381</v>
+        <v>0.00024323480046791271</v>
       </c>
       <c r="I89">
         <v>5</v>
@@ -3141,25 +3144,25 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2.2201690859590002e-14</v>
+        <v>2.2200510913142788e-14</v>
       </c>
       <c r="C90">
-        <v>0.0020390153236955074</v>
+        <v>0.0044590001569100278</v>
       </c>
       <c r="D90">
-        <v>2.2201690859590002e-14</v>
+        <v>2.2200510913142788e-14</v>
       </c>
       <c r="E90">
-        <v>0.022320833455022285</v>
+        <v>0.022023928018301091</v>
       </c>
       <c r="F90">
-        <v>0.97525128285861828</v>
+        <v>0.97295146371514363</v>
       </c>
       <c r="G90">
-        <v>2.2201690859590002e-14</v>
+        <v>2.2200510913142788e-14</v>
       </c>
       <c r="H90">
-        <v>0.00038886836259727507</v>
+        <v>0.00056560810957863381</v>
       </c>
       <c r="I90">
         <v>5</v>
@@ -3170,25 +3173,25 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2.2200700189801997e-14</v>
+        <v>2.2201690859590002e-14</v>
       </c>
       <c r="C91">
-        <v>0.01067483115404288</v>
+        <v>0.0020390153236955074</v>
       </c>
       <c r="D91">
-        <v>2.2200700189801997e-14</v>
+        <v>2.2201690859590002e-14</v>
       </c>
       <c r="E91">
-        <v>0.026263725113175991</v>
+        <v>0.022320833455022285</v>
       </c>
       <c r="F91">
-        <v>0.96211473295013183</v>
+        <v>0.97525128285861828</v>
       </c>
       <c r="G91">
-        <v>2.2200700189801997e-14</v>
+        <v>2.2201690859590002e-14</v>
       </c>
       <c r="H91">
-        <v>0.00094671078258270428</v>
+        <v>0.00038886836259727507</v>
       </c>
       <c r="I91">
         <v>5</v>
@@ -3199,25 +3202,25 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2.2194345947400886e-14</v>
+        <v>2.2200700189801997e-14</v>
       </c>
       <c r="C92">
-        <v>0.00092812010575885767</v>
+        <v>0.01067483115404288</v>
       </c>
       <c r="D92">
-        <v>2.2194345947400886e-14</v>
+        <v>2.2200700189801997e-14</v>
       </c>
       <c r="E92">
-        <v>0.024267989776259463</v>
+        <v>0.026263725113175991</v>
       </c>
       <c r="F92">
-        <v>0.97390500936244462</v>
+        <v>0.96211473295013183</v>
       </c>
       <c r="G92">
-        <v>2.2194345947400886e-14</v>
+        <v>2.2200700189801997e-14</v>
       </c>
       <c r="H92">
-        <v>0.00089888075547064059</v>
+        <v>0.00094671078258270428</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -3228,25 +3231,25 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2.2202101695810287e-14</v>
+        <v>2.2194345947400886e-14</v>
       </c>
       <c r="C93">
-        <v>0.0083126718828148167</v>
+        <v>0.00092812010575885767</v>
       </c>
       <c r="D93">
-        <v>2.2202101695810287e-14</v>
+        <v>2.2194345947400886e-14</v>
       </c>
       <c r="E93">
-        <v>0.014557719296918771</v>
+        <v>0.024267989776259463</v>
       </c>
       <c r="F93">
-        <v>0.97648654614421793</v>
+        <v>0.97390500936244462</v>
       </c>
       <c r="G93">
-        <v>2.2202101695810287e-14</v>
+        <v>2.2194345947400886e-14</v>
       </c>
       <c r="H93">
-        <v>0.00064306267598188919</v>
+        <v>0.00089888075547064059</v>
       </c>
       <c r="I93">
         <v>5</v>
@@ -3257,25 +3260,25 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2.2198868054750075e-14</v>
+        <v>2.2202101695810287e-14</v>
       </c>
       <c r="C94">
-        <v>0.0010390973045834883</v>
+        <v>0.0083126718828148167</v>
       </c>
       <c r="D94">
-        <v>2.2198868054750075e-14</v>
+        <v>2.2202101695810287e-14</v>
       </c>
       <c r="E94">
-        <v>0.012203309070601662</v>
+        <v>0.014557719296918771</v>
       </c>
       <c r="F94">
-        <v>0.98589330107756878</v>
+        <v>0.97648654614421793</v>
       </c>
       <c r="G94">
-        <v>2.2198868054750075e-14</v>
+        <v>2.2202101695810287e-14</v>
       </c>
       <c r="H94">
-        <v>0.00086429254717949107</v>
+        <v>0.00064306267598188919</v>
       </c>
       <c r="I94">
         <v>5</v>
@@ -3286,25 +3289,25 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2.2199784356358069e-14</v>
+        <v>2.2198868054750075e-14</v>
       </c>
       <c r="C95">
-        <v>0.0048738814705804418</v>
+        <v>0.0010390973045834883</v>
       </c>
       <c r="D95">
-        <v>2.2199784356358069e-14</v>
+        <v>2.2198868054750075e-14</v>
       </c>
       <c r="E95">
-        <v>0.017440488822713301</v>
+        <v>0.012203309070601662</v>
       </c>
       <c r="F95">
-        <v>0.9772203060304181</v>
+        <v>0.98589330107756878</v>
       </c>
       <c r="G95">
-        <v>2.2199784356358069e-14</v>
+        <v>2.2198868054750075e-14</v>
       </c>
       <c r="H95">
-        <v>0.00046532367622162792</v>
+        <v>0.00086429254717949107</v>
       </c>
       <c r="I95">
         <v>5</v>
@@ -3315,25 +3318,25 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2.2202443851392386e-14</v>
+        <v>2.2199784356358069e-14</v>
       </c>
       <c r="C96">
-        <v>0.0035014019653522854</v>
+        <v>0.0048738814705804418</v>
       </c>
       <c r="D96">
-        <v>2.2202443851392386e-14</v>
+        <v>2.2199784356358069e-14</v>
       </c>
       <c r="E96">
-        <v>0.023977702693956746</v>
+        <v>0.017440488822713301</v>
       </c>
       <c r="F96">
-        <v>0.97194154790450715</v>
+        <v>0.9772203060304181</v>
       </c>
       <c r="G96">
-        <v>2.2202443851392386e-14</v>
+        <v>2.2199784356358069e-14</v>
       </c>
       <c r="H96">
-        <v>0.00057934743611717516</v>
+        <v>0.00046532367622162792</v>
       </c>
       <c r="I96">
         <v>5</v>
@@ -3344,25 +3347,25 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2.2200028028282639e-14</v>
+        <v>2.2202443851392386e-14</v>
       </c>
       <c r="C97">
-        <v>0.0022296399481748007</v>
+        <v>0.0035014019653522854</v>
       </c>
       <c r="D97">
-        <v>2.2200028028282639e-14</v>
+        <v>2.2202443851392386e-14</v>
       </c>
       <c r="E97">
-        <v>0.016332293870369646</v>
+        <v>0.023977702693956746</v>
       </c>
       <c r="F97">
-        <v>0.98128058563877385</v>
+        <v>0.97194154790450715</v>
       </c>
       <c r="G97">
-        <v>2.2200028028282639e-14</v>
+        <v>2.2202443851392386e-14</v>
       </c>
       <c r="H97">
-        <v>0.00015748054261520466</v>
+        <v>0.00057934743611717516</v>
       </c>
       <c r="I97">
         <v>5</v>
@@ -3373,25 +3376,25 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2.2200597259887287e-14</v>
+        <v>2.2200028028282639e-14</v>
       </c>
       <c r="C98">
-        <v>0.0021686344317333474</v>
+        <v>0.0022296399481748007</v>
       </c>
       <c r="D98">
-        <v>2.2200597259887287e-14</v>
+        <v>2.2200028028282639e-14</v>
       </c>
       <c r="E98">
-        <v>0.0138030679076911</v>
+        <v>0.016332293870369646</v>
       </c>
       <c r="F98">
-        <v>0.98377783430096355</v>
+        <v>0.98128058563877385</v>
       </c>
       <c r="G98">
-        <v>2.2200597259887287e-14</v>
+        <v>2.2200028028282639e-14</v>
       </c>
       <c r="H98">
-        <v>0.00025046335954532605</v>
+        <v>0.00015748054261520466</v>
       </c>
       <c r="I98">
         <v>5</v>
@@ -3402,25 +3405,25 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3.4122822749013812e-14</v>
+        <v>2.2200597259887287e-14</v>
       </c>
       <c r="C99">
-        <v>0.0025883422750353114</v>
+        <v>0.0021686344317333474</v>
       </c>
       <c r="D99">
-        <v>3.6867171787544867e-14</v>
+        <v>2.2200597259887287e-14</v>
       </c>
       <c r="E99">
-        <v>0.031513558972069818</v>
+        <v>0.0138030679076911</v>
       </c>
       <c r="F99">
-        <v>0.96532610315440526</v>
+        <v>0.98377783430096355</v>
       </c>
       <c r="G99">
-        <v>3.6867171787544874e-14</v>
+        <v>2.2200597259887287e-14</v>
       </c>
       <c r="H99">
-        <v>0.00057199559838179447</v>
+        <v>0.00025046335954532605</v>
       </c>
       <c r="I99">
         <v>5</v>
@@ -3431,25 +3434,25 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2.2200028028282639e-14</v>
+        <v>3.4122822749013812e-14</v>
       </c>
       <c r="C100">
-        <v>0.0022296399481748007</v>
+        <v>0.0025883422750353114</v>
       </c>
       <c r="D100">
-        <v>2.2200028028282639e-14</v>
+        <v>3.6867171787544867e-14</v>
       </c>
       <c r="E100">
-        <v>0.016332293870369646</v>
+        <v>0.031513558972069818</v>
       </c>
       <c r="F100">
-        <v>0.98128058563877385</v>
+        <v>0.96532610315440526</v>
       </c>
       <c r="G100">
-        <v>2.2200028028282639e-14</v>
+        <v>3.6867171787544874e-14</v>
       </c>
       <c r="H100">
-        <v>0.00015748054261520466</v>
+        <v>0.00057199559838179447</v>
       </c>
       <c r="I100">
         <v>5</v>
@@ -3460,25 +3463,25 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2.2202369376013478e-14</v>
+        <v>2.2200028028282639e-14</v>
       </c>
       <c r="C101">
-        <v>0.0047978834455631482</v>
+        <v>0.0022296399481748007</v>
       </c>
       <c r="D101">
-        <v>2.2202369376013478e-14</v>
+        <v>2.2200028028282639e-14</v>
       </c>
       <c r="E101">
-        <v>0.013716754012925859</v>
+        <v>0.016332293870369646</v>
       </c>
       <c r="F101">
-        <v>0.97976454852944972</v>
+        <v>0.98128058563877385</v>
       </c>
       <c r="G101">
-        <v>2.2202369376013478e-14</v>
+        <v>2.2200028028282639e-14</v>
       </c>
       <c r="H101">
-        <v>0.0017208140119947732</v>
+        <v>0.00015748054261520466</v>
       </c>
       <c r="I101">
         <v>5</v>
@@ -3489,25 +3492,25 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.026017991525259711</v>
+        <v>2.2202369376013478e-14</v>
       </c>
       <c r="C102">
-        <v>0.010290302853435337</v>
+        <v>0.0047978834455631482</v>
       </c>
       <c r="D102">
-        <v>0.0025458940772717254</v>
+        <v>2.2202369376013478e-14</v>
       </c>
       <c r="E102">
-        <v>0.022767372148277502</v>
+        <v>0.013716754012925859</v>
       </c>
       <c r="F102">
-        <v>0.93274189704048649</v>
+        <v>0.97976454852944972</v>
       </c>
       <c r="G102">
-        <v>0.0025458940772717289</v>
+        <v>2.2202369376013478e-14</v>
       </c>
       <c r="H102">
-        <v>0.0030906482779975522</v>
+        <v>0.0017208140119947732</v>
       </c>
       <c r="I102">
         <v>5</v>
@@ -3518,25 +3521,25 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2.2200353684900172e-14</v>
+        <v>0.026017991525259711</v>
       </c>
       <c r="C103">
-        <v>0.0017983311263379655</v>
+        <v>0.010290302853435337</v>
       </c>
       <c r="D103">
-        <v>2.2200353684900172e-14</v>
+        <v>0.0025458940772717254</v>
       </c>
       <c r="E103">
-        <v>0.011267915793557343</v>
+        <v>0.022767372148277502</v>
       </c>
       <c r="F103">
-        <v>0.98665127208202852</v>
+        <v>0.93274189704048649</v>
       </c>
       <c r="G103">
-        <v>2.2200353684900172e-14</v>
+        <v>0.0025458940772717289</v>
       </c>
       <c r="H103">
-        <v>0.0002824809980096144</v>
+        <v>0.0030906482779975522</v>
       </c>
       <c r="I103">
         <v>5</v>
@@ -3547,25 +3550,25 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.21376717285870389</v>
+        <v>2.2200353684900172e-14</v>
       </c>
       <c r="C104">
-        <v>0.010007134780918551</v>
+        <v>0.0017983311263379655</v>
       </c>
       <c r="D104">
-        <v>0.0041955791396254671</v>
+        <v>2.2200353684900172e-14</v>
       </c>
       <c r="E104">
-        <v>0.046385946085354741</v>
+        <v>0.011267915793557343</v>
       </c>
       <c r="F104">
-        <v>0.71670521166514467</v>
+        <v>0.98665127208202852</v>
       </c>
       <c r="G104">
-        <v>0.0041955791396254766</v>
+        <v>2.2200353684900172e-14</v>
       </c>
       <c r="H104">
-        <v>0.0047433763306272466</v>
+        <v>0.0002824809980096144</v>
       </c>
       <c r="I104">
         <v>5</v>
@@ -3576,25 +3579,25 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2.4427536386809682e-14</v>
+        <v>0.21376717285870389</v>
       </c>
       <c r="C105">
-        <v>0.01254060192887003</v>
+        <v>0.010007134780918551</v>
       </c>
       <c r="D105">
-        <v>2.4828009047563338e-14</v>
+        <v>0.0041955791396254671</v>
       </c>
       <c r="E105">
-        <v>0.021888986885699752</v>
+        <v>0.046385946085354741</v>
       </c>
       <c r="F105">
-        <v>0.96446266169348382</v>
+        <v>0.71670521166514467</v>
       </c>
       <c r="G105">
-        <v>2.4828009047563335e-14</v>
+        <v>0.0041955791396254766</v>
       </c>
       <c r="H105">
-        <v>0.001107749491872177</v>
+        <v>0.0047433763306272466</v>
       </c>
       <c r="I105">
         <v>5</v>
@@ -3605,25 +3608,25 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3.4103604348142577e-14</v>
+        <v>2.4427536386809682e-14</v>
       </c>
       <c r="C106">
-        <v>0.016582046715300496</v>
+        <v>0.01254060192887003</v>
       </c>
       <c r="D106">
-        <v>3.6802568928642933e-14</v>
+        <v>2.4828009047563338e-14</v>
       </c>
       <c r="E106">
-        <v>0.029202178063667629</v>
+        <v>0.021888986885699752</v>
       </c>
       <c r="F106">
-        <v>0.95246949711430817</v>
+        <v>0.96446266169348382</v>
       </c>
       <c r="G106">
-        <v>3.6802568928643331e-14</v>
+        <v>2.4828009047563335e-14</v>
       </c>
       <c r="H106">
-        <v>0.0017462781066159717</v>
+        <v>0.001107749491872177</v>
       </c>
       <c r="I106">
         <v>5</v>
@@ -3663,25 +3666,25 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.063932803208801653</v>
+        <v>3.4103604348142577e-14</v>
       </c>
       <c r="C108">
-        <v>0.020627811638849577</v>
+        <v>0.016582046715300496</v>
       </c>
       <c r="D108">
-        <v>0.0035901215611746236</v>
+        <v>3.6802568928642933e-14</v>
       </c>
       <c r="E108">
-        <v>0.031227837143509518</v>
+        <v>0.029202178063667629</v>
       </c>
       <c r="F108">
-        <v>0.87286004042000997</v>
+        <v>0.95246949711430817</v>
       </c>
       <c r="G108">
-        <v>0.0035901215611746258</v>
+        <v>3.6802568928643331e-14</v>
       </c>
       <c r="H108">
-        <v>0.0041712644664800326</v>
+        <v>0.0017462781066159717</v>
       </c>
       <c r="I108">
         <v>5</v>
@@ -3692,25 +3695,25 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>3.0654114153906578e-14</v>
+        <v>0.063932803208801653</v>
       </c>
       <c r="C109">
-        <v>0.014191127935963164</v>
+        <v>0.020627811638849577</v>
       </c>
       <c r="D109">
-        <v>3.2467438260093455e-14</v>
+        <v>0.0035901215611746236</v>
       </c>
       <c r="E109">
-        <v>0.029730855045746924</v>
+        <v>0.031227837143509518</v>
       </c>
       <c r="F109">
-        <v>0.95507395537235595</v>
+        <v>0.87286004042000997</v>
       </c>
       <c r="G109">
-        <v>3.2467438260093398e-14</v>
+        <v>0.0035901215611746258</v>
       </c>
       <c r="H109">
-        <v>0.0010040616458384811</v>
+        <v>0.0041712644664800326</v>
       </c>
       <c r="I109">
         <v>5</v>
@@ -3721,25 +3724,25 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.030265724960744766</v>
+        <v>3.0654114153906578e-14</v>
       </c>
       <c r="C110">
-        <v>0.012059905330379157</v>
+        <v>0.014191127935963164</v>
       </c>
       <c r="D110">
-        <v>0.0026675438971458295</v>
+        <v>3.2467438260093455e-14</v>
       </c>
       <c r="E110">
-        <v>0.033217730871314091</v>
+        <v>0.029730855045746924</v>
       </c>
       <c r="F110">
-        <v>0.9158295184874069</v>
+        <v>0.95507395537235595</v>
       </c>
       <c r="G110">
-        <v>0.0026675438971458347</v>
+        <v>3.2467438260093398e-14</v>
       </c>
       <c r="H110">
-        <v>0.0032920325558634753</v>
+        <v>0.0010040616458384811</v>
       </c>
       <c r="I110">
         <v>5</v>
@@ -3750,25 +3753,25 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2.2202519073096164e-14</v>
+        <v>0.030265724960744766</v>
       </c>
       <c r="C111">
-        <v>0.0052780001963511763</v>
+        <v>0.012059905330379157</v>
       </c>
       <c r="D111">
-        <v>2.2202519073096164e-14</v>
+        <v>0.0026675438971458295</v>
       </c>
       <c r="E111">
-        <v>0.011143951443387057</v>
+        <v>0.033217730871314091</v>
       </c>
       <c r="F111">
-        <v>0.98257289418514504</v>
+        <v>0.9158295184874069</v>
       </c>
       <c r="G111">
-        <v>2.2202519073096164e-14</v>
+        <v>0.0026675438971458347</v>
       </c>
       <c r="H111">
-        <v>0.0010051541750501259</v>
+        <v>0.0032920325558634753</v>
       </c>
       <c r="I111">
         <v>5</v>
@@ -3779,25 +3782,25 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2.4295741779760607e-14</v>
+        <v>2.2202519073096164e-14</v>
       </c>
       <c r="C112">
-        <v>0.0056001664454678182</v>
+        <v>0.0052780001963511763</v>
       </c>
       <c r="D112">
-        <v>2.4658124368270591e-14</v>
+        <v>2.2202519073096164e-14</v>
       </c>
       <c r="E112">
-        <v>0.016351216567113112</v>
+        <v>0.011143951443387057</v>
       </c>
       <c r="F112">
-        <v>0.97757129057387637</v>
+        <v>0.98257289418514504</v>
       </c>
       <c r="G112">
-        <v>2.4658124368270575e-14</v>
+        <v>2.2202519073096164e-14</v>
       </c>
       <c r="H112">
-        <v>0.00047732641346914426</v>
+        <v>0.0010051541750501259</v>
       </c>
       <c r="I112">
         <v>5</v>
@@ -3808,25 +3811,25 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.2199433776806407e-14</v>
+        <v>2.4295741779760607e-14</v>
       </c>
       <c r="C113">
-        <v>0.00062921377060717984</v>
+        <v>0.0056001664454678182</v>
       </c>
       <c r="D113">
-        <v>2.2199433776806407e-14</v>
+        <v>2.4658124368270591e-14</v>
       </c>
       <c r="E113">
-        <v>0.018249345694070992</v>
+        <v>0.016351216567113112</v>
       </c>
       <c r="F113">
-        <v>0.98059704220833133</v>
+        <v>0.97757129057387637</v>
       </c>
       <c r="G113">
-        <v>2.2199433776806407e-14</v>
+        <v>2.4658124368270575e-14</v>
       </c>
       <c r="H113">
-        <v>0.00052439832692402532</v>
+        <v>0.00047732641346914426</v>
       </c>
       <c r="I113">
         <v>5</v>
@@ -3837,25 +3840,25 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2.2200472774133184e-14</v>
+        <v>2.2199433776806407e-14</v>
       </c>
       <c r="C114">
-        <v>0.0040359028967883615</v>
+        <v>0.00062921377060717984</v>
       </c>
       <c r="D114">
-        <v>2.2200472774133184e-14</v>
+        <v>2.2199433776806407e-14</v>
       </c>
       <c r="E114">
-        <v>0.024733659839820985</v>
+        <v>0.018249345694070992</v>
       </c>
       <c r="F114">
-        <v>0.97064560088783347</v>
+        <v>0.98059704220833133</v>
       </c>
       <c r="G114">
-        <v>2.2200472774133184e-14</v>
+        <v>2.2199433776806407e-14</v>
       </c>
       <c r="H114">
-        <v>0.00058483637549044791</v>
+        <v>0.00052439832692402532</v>
       </c>
       <c r="I114">
         <v>5</v>
@@ -3866,25 +3869,25 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.4111219596677828e-14</v>
+        <v>2.2200472774133184e-14</v>
       </c>
       <c r="C115">
-        <v>0.0066707648542521812</v>
+        <v>0.0040359028967883615</v>
       </c>
       <c r="D115">
-        <v>2.4443642434431161e-14</v>
+        <v>2.2200472774133184e-14</v>
       </c>
       <c r="E115">
-        <v>0.022852542278857749</v>
+        <v>0.024733659839820985</v>
       </c>
       <c r="F115">
-        <v>0.96919607391370211</v>
+        <v>0.97064560088783347</v>
       </c>
       <c r="G115">
-        <v>2.4443642434431439e-14</v>
+        <v>2.2200472774133184e-14</v>
       </c>
       <c r="H115">
-        <v>0.0012806189531149976</v>
+        <v>0.00058483637549044791</v>
       </c>
       <c r="I115">
         <v>5</v>
@@ -3895,25 +3898,25 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2.2203005182399157e-14</v>
+        <v>2.4111219596677828e-14</v>
       </c>
       <c r="C116">
-        <v>0.0078629028453911527</v>
+        <v>0.0066707648542521812</v>
       </c>
       <c r="D116">
-        <v>2.2203005182399157e-14</v>
+        <v>2.4443642434431161e-14</v>
       </c>
       <c r="E116">
-        <v>0.018956657781894197</v>
+        <v>0.022852542278857749</v>
       </c>
       <c r="F116">
-        <v>0.97270191656582761</v>
+        <v>0.96919607391370211</v>
       </c>
       <c r="G116">
-        <v>2.2203005182399157e-14</v>
+        <v>2.4443642434431439e-14</v>
       </c>
       <c r="H116">
-        <v>0.00047852280682046395</v>
+        <v>0.0012806189531149976</v>
       </c>
       <c r="I116">
         <v>5</v>
@@ -3924,25 +3927,25 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2.6406885499805473e-14</v>
+        <v>2.2203005182399157e-14</v>
       </c>
       <c r="C117">
-        <v>0.012904829574670804</v>
+        <v>0.0078629028453911527</v>
       </c>
       <c r="D117">
-        <v>2.7226068958240542e-14</v>
+        <v>2.2203005182399157e-14</v>
       </c>
       <c r="E117">
-        <v>0.017138063784998936</v>
+        <v>0.018956657781894197</v>
       </c>
       <c r="F117">
-        <v>0.96836961746914085</v>
+        <v>0.97270191656582761</v>
       </c>
       <c r="G117">
-        <v>2.7226068958240561e-14</v>
+        <v>2.2203005182399157e-14</v>
       </c>
       <c r="H117">
-        <v>0.0015874891711086011</v>
+        <v>0.00047852280682046395</v>
       </c>
       <c r="I117">
         <v>5</v>
@@ -3953,25 +3956,25 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2.22013187952938e-14</v>
+        <v>2.6406885499805473e-14</v>
       </c>
       <c r="C118">
-        <v>0.0070751564125646395</v>
+        <v>0.012904829574670804</v>
       </c>
       <c r="D118">
-        <v>2.22013187952938e-14</v>
+        <v>2.7226068958240542e-14</v>
       </c>
       <c r="E118">
-        <v>0.016867261492411589</v>
+        <v>0.017138063784998936</v>
       </c>
       <c r="F118">
-        <v>0.97510623402002694</v>
+        <v>0.96836961746914085</v>
       </c>
       <c r="G118">
-        <v>2.22013187952938e-14</v>
+        <v>2.7226068958240561e-14</v>
       </c>
       <c r="H118">
-        <v>0.00095134807493026552</v>
+        <v>0.0015874891711086011</v>
       </c>
       <c r="I118">
         <v>5</v>
@@ -3982,25 +3985,25 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2.2203053117090027e-14</v>
+        <v>2.22013187952938e-14</v>
       </c>
       <c r="C119">
-        <v>0.0095650212910693821</v>
+        <v>0.0070751564125646395</v>
       </c>
       <c r="D119">
-        <v>2.2203053117090027e-14</v>
+        <v>2.22013187952938e-14</v>
       </c>
       <c r="E119">
-        <v>0.012581848973047552</v>
+        <v>0.016867261492411589</v>
       </c>
       <c r="F119">
-        <v>0.97650738117305658</v>
+        <v>0.97510623402002694</v>
       </c>
       <c r="G119">
-        <v>2.2203053117090027e-14</v>
+        <v>2.22013187952938e-14</v>
       </c>
       <c r="H119">
-        <v>0.0013457485627599724</v>
+        <v>0.00095134807493026552</v>
       </c>
       <c r="I119">
         <v>5</v>
@@ -4011,25 +4014,25 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2.7327779135363162e-14</v>
+        <v>2.2203053117090027e-14</v>
       </c>
       <c r="C120">
-        <v>0.010430596824224904</v>
+        <v>0.0095650212910693821</v>
       </c>
       <c r="D120">
-        <v>2.8350870550688991e-14</v>
+        <v>2.2203053117090027e-14</v>
       </c>
       <c r="E120">
-        <v>0.021997847400601431</v>
+        <v>0.012581848973047552</v>
       </c>
       <c r="F120">
-        <v>0.96647309185212804</v>
+        <v>0.97650738117305658</v>
       </c>
       <c r="G120">
-        <v>2.8350870550689007e-14</v>
+        <v>2.2203053117090027e-14</v>
       </c>
       <c r="H120">
-        <v>0.0010984639229616184</v>
+        <v>0.0013457485627599724</v>
       </c>
       <c r="I120">
         <v>5</v>
@@ -4040,25 +4043,25 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2.9844372317530257e-14</v>
+        <v>2.7327779135363162e-14</v>
       </c>
       <c r="C121">
-        <v>0.01478193028601075</v>
+        <v>0.010430596824224904</v>
       </c>
       <c r="D121">
-        <v>3.1460192125004139e-14</v>
+        <v>2.8350870550688991e-14</v>
       </c>
       <c r="E121">
-        <v>0.022509093157049485</v>
+        <v>0.021997847400601431</v>
       </c>
       <c r="F121">
-        <v>0.9607978856823105</v>
+        <v>0.96647309185212804</v>
       </c>
       <c r="G121">
-        <v>3.1460192125004126e-14</v>
+        <v>2.8350870550689007e-14</v>
       </c>
       <c r="H121">
-        <v>0.001911090874536434</v>
+        <v>0.0010984639229616184</v>
       </c>
       <c r="I121">
         <v>5</v>
@@ -4069,25 +4072,25 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.2200049705151886e-14</v>
+        <v>2.9844372317530257e-14</v>
       </c>
       <c r="C122">
-        <v>0.0066616466253416867</v>
+        <v>0.01478193028601075</v>
       </c>
       <c r="D122">
-        <v>2.2200049705151886e-14</v>
+        <v>3.1460192125004139e-14</v>
       </c>
       <c r="E122">
-        <v>0.015729330293307579</v>
+        <v>0.022509093157049485</v>
       </c>
       <c r="F122">
-        <v>0.97701418661958228</v>
+        <v>0.9607978856823105</v>
       </c>
       <c r="G122">
-        <v>2.2200049705151886e-14</v>
+        <v>3.1460192125004126e-14</v>
       </c>
       <c r="H122">
-        <v>0.00059483646170171945</v>
+        <v>0.001911090874536434</v>
       </c>
       <c r="I122">
         <v>5</v>
@@ -4098,25 +4101,25 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2.7327779135363162e-14</v>
+        <v>2.2200049705151886e-14</v>
       </c>
       <c r="C123">
-        <v>0.010430596824224904</v>
+        <v>0.0066616466253416867</v>
       </c>
       <c r="D123">
-        <v>2.8350870550688991e-14</v>
+        <v>2.2200049705151886e-14</v>
       </c>
       <c r="E123">
-        <v>0.021997847400601431</v>
+        <v>0.015729330293307579</v>
       </c>
       <c r="F123">
-        <v>0.96647309185212804</v>
+        <v>0.97701418661958228</v>
       </c>
       <c r="G123">
-        <v>2.8350870550689007e-14</v>
+        <v>2.2200049705151886e-14</v>
       </c>
       <c r="H123">
-        <v>0.0010984639229616184</v>
+        <v>0.00059483646170171945</v>
       </c>
       <c r="I123">
         <v>5</v>
@@ -4127,25 +4130,25 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2.2203005136167718e-14</v>
+        <v>2.7327779135363162e-14</v>
       </c>
       <c r="C124">
-        <v>0.0050676028537374644</v>
+        <v>0.010430596824224904</v>
       </c>
       <c r="D124">
-        <v>2.2203005136167718e-14</v>
+        <v>2.8350870550688991e-14</v>
       </c>
       <c r="E124">
-        <v>0.0099647402775487181</v>
+        <v>0.021997847400601431</v>
       </c>
       <c r="F124">
-        <v>0.98398558147561421</v>
+        <v>0.96647309185212804</v>
       </c>
       <c r="G124">
-        <v>2.2203005136167718e-14</v>
+        <v>2.8350870550689007e-14</v>
       </c>
       <c r="H124">
-        <v>0.0009820753930330692</v>
+        <v>0.0010984639229616184</v>
       </c>
       <c r="I124">
         <v>5</v>
@@ -4185,25 +4188,25 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2.2199131214446714e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C126">
-        <v>0.0014316839549418151</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D126">
-        <v>2.2199131214446714e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E126">
-        <v>0.018525445308577131</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F126">
-        <v>0.97855012494384963</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G126">
-        <v>2.2199131214446714e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H126">
-        <v>0.0014927457925648809</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I126">
         <v>5</v>
@@ -4214,25 +4217,25 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2.5557885926149268e-14</v>
+        <v>2.2199131214446714e-14</v>
       </c>
       <c r="C127">
-        <v>0.017402335191307593</v>
+        <v>0.0014316839549418151</v>
       </c>
       <c r="D127">
-        <v>2.6196676972288298e-14</v>
+        <v>2.2199131214446714e-14</v>
       </c>
       <c r="E127">
-        <v>0.023189964507996787</v>
+        <v>0.018525445308577131</v>
       </c>
       <c r="F127">
-        <v>0.95728534529212284</v>
+        <v>0.97855012494384963</v>
       </c>
       <c r="G127">
-        <v>2.6196676972288279e-14</v>
+        <v>2.2199131214446714e-14</v>
       </c>
       <c r="H127">
-        <v>0.0021223550084948214</v>
+        <v>0.0014927457925648809</v>
       </c>
       <c r="I127">
         <v>5</v>
@@ -4243,25 +4246,25 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2.2203005136167718e-14</v>
+        <v>2.5557885926149268e-14</v>
       </c>
       <c r="C128">
-        <v>0.0050676028537374644</v>
+        <v>0.017402335191307593</v>
       </c>
       <c r="D128">
-        <v>2.2203005136167718e-14</v>
+        <v>2.6196676972288298e-14</v>
       </c>
       <c r="E128">
-        <v>0.0099647402775487181</v>
+        <v>0.023189964507996787</v>
       </c>
       <c r="F128">
-        <v>0.98398558147561421</v>
+        <v>0.95728534529212284</v>
       </c>
       <c r="G128">
-        <v>2.2203005136167718e-14</v>
+        <v>2.6196676972288279e-14</v>
       </c>
       <c r="H128">
-        <v>0.0009820753930330692</v>
+        <v>0.0021223550084948214</v>
       </c>
       <c r="I128">
         <v>5</v>
@@ -4272,25 +4275,25 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2.2868213772386632e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C129">
-        <v>0.010030685050161999</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D129">
-        <v>2.2967399161379077e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E129">
-        <v>0.015963096016219581</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F129">
-        <v>0.97310222503020061</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G129">
-        <v>2.296739916137909e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H129">
-        <v>0.0009039939033490277</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I129">
         <v>5</v>
@@ -4301,25 +4304,25 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2.2201666706707661e-14</v>
+        <v>2.2868213772386632e-14</v>
       </c>
       <c r="C130">
-        <v>0.0042685644320124205</v>
+        <v>0.010030685050161999</v>
       </c>
       <c r="D130">
-        <v>2.2201666706707661e-14</v>
+        <v>2.2967399161379077e-14</v>
       </c>
       <c r="E130">
-        <v>0.013936722493667123</v>
+        <v>0.015963096016219581</v>
       </c>
       <c r="F130">
-        <v>0.98057718279770822</v>
+        <v>0.97310222503020061</v>
       </c>
       <c r="G130">
-        <v>2.2201666706707661e-14</v>
+        <v>2.296739916137909e-14</v>
       </c>
       <c r="H130">
-        <v>0.0012175302765454607</v>
+        <v>0.0009039939033490277</v>
       </c>
       <c r="I130">
         <v>5</v>
@@ -4330,25 +4333,25 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2201666706707661e-14</v>
       </c>
       <c r="C131">
-        <v>0.0050676028537374644</v>
+        <v>0.0042685644320124205</v>
       </c>
       <c r="D131">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2201666706707661e-14</v>
       </c>
       <c r="E131">
-        <v>0.0099647402775487181</v>
+        <v>0.013936722493667123</v>
       </c>
       <c r="F131">
-        <v>0.98398558147561421</v>
+        <v>0.98057718279770822</v>
       </c>
       <c r="G131">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2201666706707661e-14</v>
       </c>
       <c r="H131">
-        <v>0.0009820753930330692</v>
+        <v>0.0012175302765454607</v>
       </c>
       <c r="I131">
         <v>5</v>
@@ -4359,25 +4362,25 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2.2508915188664971e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C132">
-        <v>0.0065393703502204586</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D132">
-        <v>2.2548466127956891e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E132">
-        <v>0.019854157116950828</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F132">
-        <v>0.97283560553438131</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G132">
-        <v>2.2548466127956903e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H132">
-        <v>0.00077086699837981062</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I132">
         <v>5</v>
@@ -4388,25 +4391,25 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2.2200390521396301e-14</v>
+        <v>2.2508915188664971e-14</v>
       </c>
       <c r="C133">
-        <v>0.0044636830232887559</v>
+        <v>0.0065393703502204586</v>
       </c>
       <c r="D133">
-        <v>2.2200390521396301e-14</v>
+        <v>2.2548466127956891e-14</v>
       </c>
       <c r="E133">
-        <v>0.013282294101423817</v>
+        <v>0.019854157116950828</v>
       </c>
       <c r="F133">
-        <v>0.98071910636120985</v>
+        <v>0.97283560553438131</v>
       </c>
       <c r="G133">
-        <v>2.2200390521396301e-14</v>
+        <v>2.2548466127956903e-14</v>
       </c>
       <c r="H133">
-        <v>0.0015349165140109144</v>
+        <v>0.00077086699837981062</v>
       </c>
       <c r="I133">
         <v>5</v>
@@ -4417,25 +4420,25 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2200390521396301e-14</v>
       </c>
       <c r="C134">
-        <v>0.0050676028537374644</v>
+        <v>0.0044636830232887559</v>
       </c>
       <c r="D134">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2200390521396301e-14</v>
       </c>
       <c r="E134">
-        <v>0.0099647402775487181</v>
+        <v>0.013282294101423817</v>
       </c>
       <c r="F134">
-        <v>0.98398558147561421</v>
+        <v>0.98071910636120985</v>
       </c>
       <c r="G134">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2200390521396301e-14</v>
       </c>
       <c r="H134">
-        <v>0.0009820753930330692</v>
+        <v>0.0015349165140109144</v>
       </c>
       <c r="I134">
         <v>5</v>
@@ -4446,25 +4449,25 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C135">
-        <v>0.0065662828868130237</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D135">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E135">
-        <v>0.014380378088483971</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F135">
-        <v>0.97826493422507732</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G135">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H135">
-        <v>0.00078840479955897863</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I135">
         <v>5</v>
@@ -4475,25 +4478,25 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.2201733047024828e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="C136">
-        <v>0.0047064739114530728</v>
+        <v>0.0065662828868130237</v>
       </c>
       <c r="D136">
-        <v>2.2201733047024828e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="E136">
-        <v>0.018209928884735872</v>
+        <v>0.014380378088483971</v>
       </c>
       <c r="F136">
-        <v>0.97651900812042836</v>
+        <v>0.97826493422507732</v>
       </c>
       <c r="G136">
-        <v>2.2201733047024828e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="H136">
-        <v>0.00056458908331624626</v>
+        <v>0.00078840479955897863</v>
       </c>
       <c r="I136">
         <v>5</v>
@@ -4504,25 +4507,25 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2201733047024828e-14</v>
       </c>
       <c r="C137">
-        <v>0.0065662828868130237</v>
+        <v>0.0047064739114530728</v>
       </c>
       <c r="D137">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2201733047024828e-14</v>
       </c>
       <c r="E137">
-        <v>0.014380378088483971</v>
+        <v>0.018209928884735872</v>
       </c>
       <c r="F137">
-        <v>0.97826493422507732</v>
+        <v>0.97651900812042836</v>
       </c>
       <c r="G137">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2201733047024828e-14</v>
       </c>
       <c r="H137">
-        <v>0.00078840479955897863</v>
+        <v>0.00056458908331624626</v>
       </c>
       <c r="I137">
         <v>5</v>
@@ -4533,25 +4536,25 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="C138">
-        <v>0.0050676028537374644</v>
+        <v>0.0065662828868130237</v>
       </c>
       <c r="D138">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="E138">
-        <v>0.0099647402775487181</v>
+        <v>0.014380378088483971</v>
       </c>
       <c r="F138">
-        <v>0.98398558147561421</v>
+        <v>0.97826493422507732</v>
       </c>
       <c r="G138">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="H138">
-        <v>0.0009820753930330692</v>
+        <v>0.00078840479955897863</v>
       </c>
       <c r="I138">
         <v>5</v>
@@ -4591,25 +4594,25 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2.2868213772386632e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C140">
-        <v>0.010030685050161999</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D140">
-        <v>2.2967399161379077e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E140">
-        <v>0.015963096016219581</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F140">
-        <v>0.97310222503020061</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G140">
-        <v>2.296739916137909e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H140">
-        <v>0.0009039939033490277</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I140">
         <v>5</v>
@@ -4620,25 +4623,25 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2.3661038328227418e-14</v>
+        <v>2.2868213772386632e-14</v>
       </c>
       <c r="C141">
-        <v>0.0084649227936618686</v>
+        <v>0.010030685050161999</v>
       </c>
       <c r="D141">
-        <v>2.3904590546053461e-14</v>
+        <v>2.2967399161379077e-14</v>
       </c>
       <c r="E141">
-        <v>0.015833713279266717</v>
+        <v>0.015963096016219581</v>
       </c>
       <c r="F141">
-        <v>0.97400504170845348</v>
+        <v>0.97310222503020061</v>
       </c>
       <c r="G141">
-        <v>2.390459054605348e-14</v>
+        <v>2.296739916137909e-14</v>
       </c>
       <c r="H141">
-        <v>0.0016963222185465228</v>
+        <v>0.0009039939033490277</v>
       </c>
       <c r="I141">
         <v>5</v>
@@ -4649,25 +4652,25 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2.2202837147608418e-14</v>
+        <v>2.3661038328227418e-14</v>
       </c>
       <c r="C142">
-        <v>0.0065662828868130237</v>
+        <v>0.0084649227936618686</v>
       </c>
       <c r="D142">
-        <v>2.2202837147608418e-14</v>
+        <v>2.3904590546053461e-14</v>
       </c>
       <c r="E142">
-        <v>0.014380378088483971</v>
+        <v>0.015833713279266717</v>
       </c>
       <c r="F142">
-        <v>0.97826493422507732</v>
+        <v>0.97400504170845348</v>
       </c>
       <c r="G142">
-        <v>2.2202837147608418e-14</v>
+        <v>2.390459054605348e-14</v>
       </c>
       <c r="H142">
-        <v>0.00078840479955897863</v>
+        <v>0.0016963222185465228</v>
       </c>
       <c r="I142">
         <v>5</v>
@@ -4678,25 +4681,25 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2.6835829728579398e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="C143">
-        <v>0.01292821594024177</v>
+        <v>0.0065662828868130237</v>
       </c>
       <c r="D143">
-        <v>2.7749943782237975e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="E143">
-        <v>0.022728610584791493</v>
+        <v>0.014380378088483971</v>
       </c>
       <c r="F143">
-        <v>0.96325555049043055</v>
+        <v>0.97826493422507732</v>
       </c>
       <c r="G143">
-        <v>2.7749943782237953e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="H143">
-        <v>0.001087622984453879</v>
+        <v>0.00078840479955897863</v>
       </c>
       <c r="I143">
         <v>5</v>
@@ -4707,25 +4710,25 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2.2200390521396301e-14</v>
+        <v>2.6835829728579398e-14</v>
       </c>
       <c r="C144">
-        <v>0.0044636830232887559</v>
+        <v>0.01292821594024177</v>
       </c>
       <c r="D144">
-        <v>2.2200390521396301e-14</v>
+        <v>2.7749943782237975e-14</v>
       </c>
       <c r="E144">
-        <v>0.013282294101423817</v>
+        <v>0.022728610584791493</v>
       </c>
       <c r="F144">
-        <v>0.98071910636120985</v>
+        <v>0.96325555049043055</v>
       </c>
       <c r="G144">
-        <v>2.2200390521396301e-14</v>
+        <v>2.7749943782237953e-14</v>
       </c>
       <c r="H144">
-        <v>0.0015349165140109144</v>
+        <v>0.001087622984453879</v>
       </c>
       <c r="I144">
         <v>5</v>
@@ -4736,25 +4739,25 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2200390521396301e-14</v>
       </c>
       <c r="C145">
-        <v>0.0050676028537374644</v>
+        <v>0.0044636830232887559</v>
       </c>
       <c r="D145">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2200390521396301e-14</v>
       </c>
       <c r="E145">
-        <v>0.0099647402775487181</v>
+        <v>0.013282294101423817</v>
       </c>
       <c r="F145">
-        <v>0.98398558147561421</v>
+        <v>0.98071910636120985</v>
       </c>
       <c r="G145">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2200390521396301e-14</v>
       </c>
       <c r="H145">
-        <v>0.0009820753930330692</v>
+        <v>0.0015349165140109144</v>
       </c>
       <c r="I145">
         <v>5</v>
@@ -4765,25 +4768,25 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2.2201332965052357e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C146">
-        <v>0.0028619813181322059</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D146">
-        <v>2.2201332965052357e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E146">
-        <v>0.010573928816759538</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F146">
-        <v>0.98578534688264863</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G146">
-        <v>2.2201332965052357e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H146">
-        <v>0.00077874298239305635</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I146">
         <v>5</v>
@@ -4794,25 +4797,25 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2201332965052357e-14</v>
       </c>
       <c r="C147">
-        <v>0.0065662828868130237</v>
+        <v>0.0028619813181322059</v>
       </c>
       <c r="D147">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2201332965052357e-14</v>
       </c>
       <c r="E147">
-        <v>0.014380378088483971</v>
+        <v>0.010573928816759538</v>
       </c>
       <c r="F147">
-        <v>0.97826493422507732</v>
+        <v>0.98578534688264863</v>
       </c>
       <c r="G147">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2201332965052357e-14</v>
       </c>
       <c r="H147">
-        <v>0.00078840479955897863</v>
+        <v>0.00077874298239305635</v>
       </c>
       <c r="I147">
         <v>5</v>
@@ -4823,25 +4826,25 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="C148">
-        <v>0.0050676028537374644</v>
+        <v>0.0065662828868130237</v>
       </c>
       <c r="D148">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="E148">
-        <v>0.0099647402775487181</v>
+        <v>0.014380378088483971</v>
       </c>
       <c r="F148">
-        <v>0.98398558147561421</v>
+        <v>0.97826493422507732</v>
       </c>
       <c r="G148">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="H148">
-        <v>0.0009820753930330692</v>
+        <v>0.00078840479955897863</v>
       </c>
       <c r="I148">
         <v>5</v>
@@ -4852,25 +4855,25 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="C149">
-        <v>0.0065662828868130237</v>
+        <v>0.0050676028537374644</v>
       </c>
       <c r="D149">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="E149">
-        <v>0.014380378088483971</v>
+        <v>0.0099647402775487181</v>
       </c>
       <c r="F149">
-        <v>0.97826493422507732</v>
+        <v>0.98398558147561421</v>
       </c>
       <c r="G149">
-        <v>2.2202837147608418e-14</v>
+        <v>2.2203005136167718e-14</v>
       </c>
       <c r="H149">
-        <v>0.00078840479955897863</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I149">
         <v>5</v>
@@ -4881,25 +4884,25 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="C150">
-        <v>0.0050676028537374644</v>
+        <v>0.0065662828868130237</v>
       </c>
       <c r="D150">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="E150">
-        <v>0.0099647402775487181</v>
+        <v>0.014380378088483971</v>
       </c>
       <c r="F150">
-        <v>0.98398558147561421</v>
+        <v>0.97826493422507732</v>
       </c>
       <c r="G150">
-        <v>2.2203005136167718e-14</v>
+        <v>2.2202837147608418e-14</v>
       </c>
       <c r="H150">
-        <v>0.0009820753930330692</v>
+        <v>0.00078840479955897863</v>
       </c>
       <c r="I150">
         <v>5</v>
@@ -4939,27 +4942,56 @@
         <v>151</v>
       </c>
       <c r="B152">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C152">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D152">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E152">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F152">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G152">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H152">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
         <v>2.2202189529023808e-14</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>0.0094149822236206417</v>
       </c>
-      <c r="D152">
+      <c r="D153">
         <v>2.2202189529023808e-14</v>
       </c>
-      <c r="E152">
+      <c r="E153">
         <v>0.01529811026074954</v>
       </c>
-      <c r="F152">
+      <c r="F153">
         <v>0.97398364744351751</v>
       </c>
-      <c r="G152">
+      <c r="G153">
         <v>2.2202189529023808e-14</v>
       </c>
-      <c r="H152">
+      <c r="H153">
         <v>0.0013032600720456085</v>
       </c>
-      <c r="I152">
+      <c r="I153">
         <v>5</v>
       </c>
     </row>

--- a/outputs-HGR-r202/test-g__Acidaminococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Acidaminococcus_split_pruned.xlsx
@@ -14,51 +14,465 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>even_MAG-GUT10270.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11332.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11435.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT13045.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14741.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15742.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT1677.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT17255.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17473.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17515.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20287.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20540.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20603.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT20639.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2203.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23387.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24052.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25048.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25340.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29189.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29214.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29221.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29476.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT29878.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT31785.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT32691.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT33530.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33657.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT37976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43152.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43233.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43248.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43835.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT45903.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47875.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT51926.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT51928.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5341.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56559.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56604.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5676.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57066.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57190.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57346.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57498.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57592.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57988.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58133.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58310.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58672.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59576.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5959.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59626.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60077.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60123.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60157.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60320.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60370.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60466.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60605.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60882.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60999.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61376.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61623.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61658.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61937.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62054.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62117.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62444.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62666.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT69771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7031.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7040.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72119.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72127.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74380.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75402.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75430.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75522.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79350.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80385.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80453.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80718.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80771.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80816.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81926.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81946.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81987.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82039.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82105.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82160.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82436.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82468.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82562.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82635.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82703.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82738.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82744.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84598.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84613.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT85104.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT86870.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87575.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87833.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88081.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88255.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88680.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88995.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89180.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89206.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89239.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89279.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89290.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89315.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89344.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89353.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89416.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89571.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89719.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89868.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89896.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90087.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90109.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90165.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90191.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90290.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90323.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90506.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90686.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90699.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91042.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91118.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91137.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9659.fa</t>
   </si>
   <si>
     <t>1-s__Acidaminococcus intestini</t>
@@ -130,7 +544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I153"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -149,28 +563,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -178,25 +592,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2200420980280695e-14</v>
+        <v>2.220024279625043e-14</v>
       </c>
       <c r="C2">
-        <v>0.0072500467463026191</v>
+        <v>0.002086994899799648</v>
       </c>
       <c r="D2">
-        <v>2.2200420980280695e-14</v>
+        <v>2.220024279625043e-14</v>
       </c>
       <c r="E2">
-        <v>0.018317245395698893</v>
+        <v>0.013048441470164143</v>
       </c>
       <c r="F2">
-        <v>0.97390544861034867</v>
+        <v>0.98457250016079889</v>
       </c>
       <c r="G2">
-        <v>2.2200420980280695e-14</v>
+        <v>2.220024279625043e-14</v>
       </c>
       <c r="H2">
-        <v>0.00052725924758321324</v>
+        <v>0.00029206346917070599</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -207,28 +621,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.47112396920219879</v>
+        <v>0.047395894998503371</v>
       </c>
       <c r="C3">
-        <v>0.046807555550950258</v>
+        <v>0.0090067225688601309</v>
       </c>
       <c r="D3">
-        <v>0.0037708551114809799</v>
+        <v>0.0033846660880628319</v>
       </c>
       <c r="E3">
-        <v>0.15597283746061302</v>
+        <v>0.039031217936628983</v>
       </c>
       <c r="F3">
-        <v>0.012215236884836183</v>
+        <v>0.89417958075892467</v>
       </c>
       <c r="G3">
-        <v>0.003770855111480976</v>
+        <v>0.0033846660880628337</v>
       </c>
       <c r="H3">
-        <v>0.30633869067843988</v>
+        <v>0.0036172515609571611</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -236,25 +650,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2203371300907422e-14</v>
+        <v>2.2199435917309751e-14</v>
       </c>
       <c r="C4">
-        <v>0.0079895908514782069</v>
+        <v>0.0014388647046259051</v>
       </c>
       <c r="D4">
-        <v>2.2203371300907422e-14</v>
+        <v>2.2199435917309751e-14</v>
       </c>
       <c r="E4">
-        <v>0.023127139375787181</v>
+        <v>0.019325777898191177</v>
       </c>
       <c r="F4">
-        <v>0.96500061633582934</v>
+        <v>0.97636279897468825</v>
       </c>
       <c r="G4">
-        <v>2.2203371300907422e-14</v>
+        <v>2.2199435917309751e-14</v>
       </c>
       <c r="H4">
-        <v>0.0038826534368387147</v>
+        <v>0.0028725584224280707</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -265,28 +679,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.41122728570629929</v>
+        <v>0.07910078046513315</v>
       </c>
       <c r="C5">
-        <v>0.036306042252843139</v>
+        <v>0.011481060873698438</v>
       </c>
       <c r="D5">
-        <v>0.0038429341755296083</v>
+        <v>0.0038214665366904555</v>
       </c>
       <c r="E5">
-        <v>0.36987151230635384</v>
+        <v>0.051824348762863029</v>
       </c>
       <c r="F5">
-        <v>0.0079704173491506464</v>
+        <v>0.84571202965879433</v>
       </c>
       <c r="G5">
-        <v>0.0038429341755296066</v>
+        <v>0.0038214665366904477</v>
       </c>
       <c r="H5">
-        <v>0.16693887403429389</v>
+        <v>0.0042388471661303157</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -294,28 +708,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.52298625164775037</v>
+        <v>2.2200543683052765e-14</v>
       </c>
       <c r="C6">
-        <v>0.0054801432237856279</v>
+        <v>0.0038378091832946253</v>
       </c>
       <c r="D6">
-        <v>0.003793099613146713</v>
+        <v>2.2200543683052765e-14</v>
       </c>
       <c r="E6">
-        <v>0.053913198201227933</v>
+        <v>0.017414908418243509</v>
       </c>
       <c r="F6">
-        <v>0.33543343028366296</v>
+        <v>0.97838729463812957</v>
       </c>
       <c r="G6">
-        <v>0.069003862066544325</v>
+        <v>2.2200543683052765e-14</v>
       </c>
       <c r="H6">
-        <v>0.009390014963882037</v>
+        <v>0.00035998776026559531</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -323,28 +737,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.42861416939164226</v>
+        <v>2.2202586652490443e-14</v>
       </c>
       <c r="C7">
-        <v>0.0058467107978092073</v>
+        <v>0.005828239595696845</v>
       </c>
       <c r="D7">
-        <v>0.0040899826170676078</v>
+        <v>2.2202586652490443e-14</v>
       </c>
       <c r="E7">
-        <v>0.066717285581885943</v>
+        <v>0.01227236443921886</v>
       </c>
       <c r="F7">
-        <v>0.47672109064941337</v>
+        <v>0.98014908439159321</v>
       </c>
       <c r="G7">
-        <v>0.0040899826170676086</v>
+        <v>2.2202586652490443e-14</v>
       </c>
       <c r="H7">
-        <v>0.013920778345113969</v>
+        <v>0.0017503115734244154</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -352,25 +766,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2235981079476429e-14</v>
+        <v>2.2200018523821879e-14</v>
       </c>
       <c r="C8">
-        <v>0.0095597142278357333</v>
+        <v>0.006808197315143389</v>
       </c>
       <c r="D8">
-        <v>2.2237152385972125e-14</v>
+        <v>2.2200018523821879e-14</v>
       </c>
       <c r="E8">
-        <v>0.020370011239386022</v>
+        <v>0.016642538938975583</v>
       </c>
       <c r="F8">
-        <v>0.96906356898496082</v>
+        <v>0.97563768708367948</v>
       </c>
       <c r="G8">
-        <v>2.2237152385972125e-14</v>
+        <v>2.2200018523821879e-14</v>
       </c>
       <c r="H8">
-        <v>0.0010067055477507374</v>
+        <v>0.0009115766621349198</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -381,25 +795,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2199965206886443e-14</v>
+        <v>2.2200018523821879e-14</v>
       </c>
       <c r="C9">
-        <v>0.0024134437708682658</v>
+        <v>0.006808197315143389</v>
       </c>
       <c r="D9">
-        <v>2.2199965206886443e-14</v>
+        <v>2.2200018523821879e-14</v>
       </c>
       <c r="E9">
-        <v>0.019796455886212282</v>
+        <v>0.016642538938975583</v>
       </c>
       <c r="F9">
-        <v>0.9775048218346204</v>
+        <v>0.97563768708367948</v>
       </c>
       <c r="G9">
-        <v>2.2199965206886443e-14</v>
+        <v>2.2200018523821879e-14</v>
       </c>
       <c r="H9">
-        <v>0.00028527850823248244</v>
+        <v>0.0009115766621349198</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -410,25 +824,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.22020784710388e-14</v>
+        <v>2.6715348469230685e-14</v>
       </c>
       <c r="C10">
-        <v>0.003505240605648891</v>
+        <v>0.0094697862833254317</v>
       </c>
       <c r="D10">
-        <v>2.22020784710388e-14</v>
+        <v>2.7594289515380872e-14</v>
       </c>
       <c r="E10">
-        <v>0.011089951630262553</v>
+        <v>0.014077848754967913</v>
       </c>
       <c r="F10">
-        <v>0.98482243508808387</v>
+        <v>0.97460517223105336</v>
       </c>
       <c r="G10">
-        <v>2.22020784710388e-14</v>
+        <v>2.7594289515380837e-14</v>
       </c>
       <c r="H10">
-        <v>0.0005823726759382606</v>
+        <v>0.0018471927305714064</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -439,25 +853,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2194345947400886e-14</v>
+        <v>3.7526671221451834e-14</v>
       </c>
       <c r="C11">
-        <v>0.0009281201057588297</v>
+        <v>0.0056190535227055643</v>
       </c>
       <c r="D11">
-        <v>2.2194345947400886e-14</v>
+        <v>4.1203137798760649e-14</v>
       </c>
       <c r="E11">
-        <v>0.024267989776260317</v>
+        <v>0.020468274062389376</v>
       </c>
       <c r="F11">
-        <v>0.97390500936244373</v>
+        <v>0.97229244563333084</v>
       </c>
       <c r="G11">
-        <v>2.2194345947400886e-14</v>
+        <v>4.1203137798761476e-14</v>
       </c>
       <c r="H11">
-        <v>0.00089888075547063517</v>
+        <v>0.0016202267814542271</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -468,25 +882,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2202101695810287e-14</v>
+        <v>2.2200217769083804e-14</v>
       </c>
       <c r="C12">
-        <v>0.0083126718828150769</v>
+        <v>0.0021070835807738136</v>
       </c>
       <c r="D12">
-        <v>2.2202101695810287e-14</v>
+        <v>2.2200217769083804e-14</v>
       </c>
       <c r="E12">
-        <v>0.014557719296918377</v>
+        <v>0.016006542215538922</v>
       </c>
       <c r="F12">
-        <v>0.97648654614421793</v>
+        <v>0.98171284109670165</v>
       </c>
       <c r="G12">
-        <v>2.2202101695810287e-14</v>
+        <v>2.2200217769083804e-14</v>
       </c>
       <c r="H12">
-        <v>0.00064306267598190404</v>
+        <v>0.0001735331069189058</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -497,25 +911,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.2199784356358069e-14</v>
+        <v>2.2200420980280695e-14</v>
       </c>
       <c r="C13">
-        <v>0.0048738814705806205</v>
+        <v>0.0072500467463026729</v>
       </c>
       <c r="D13">
-        <v>2.2199784356358069e-14</v>
+        <v>2.2200420980280695e-14</v>
       </c>
       <c r="E13">
-        <v>0.017440488822713564</v>
+        <v>0.018317245395697155</v>
       </c>
       <c r="F13">
-        <v>0.97722030603041765</v>
+        <v>0.97390544861035033</v>
       </c>
       <c r="G13">
-        <v>2.2199784356358069e-14</v>
+        <v>2.2200420980280695e-14</v>
       </c>
       <c r="H13">
-        <v>0.00046532367622166055</v>
+        <v>0.00052725924758326018</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -526,25 +940,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.4122822749017712e-14</v>
+        <v>3.4701836502195381e-14</v>
       </c>
       <c r="C14">
-        <v>0.0025883422750356392</v>
+        <v>0.0076370882448508724</v>
       </c>
       <c r="D14">
-        <v>3.6867171787549878e-14</v>
+        <v>3.7580593614031428e-14</v>
       </c>
       <c r="E14">
-        <v>0.031513558972071087</v>
+        <v>0.028954305063797141</v>
       </c>
       <c r="F14">
-        <v>0.96532610315440348</v>
+        <v>0.96249108877735556</v>
       </c>
       <c r="G14">
-        <v>3.686717178754984e-14</v>
+        <v>3.7580593614031402e-14</v>
       </c>
       <c r="H14">
-        <v>0.00057199559838183394</v>
+        <v>0.00091751791388661663</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -555,27 +969,4029 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.9844372317528856e-14</v>
+        <v>2.9499580677695024e-14</v>
       </c>
       <c r="C15">
-        <v>0.014781930286010117</v>
+        <v>0.007025700690074169</v>
       </c>
       <c r="D15">
-        <v>3.1460192125002403e-14</v>
+        <v>3.1029173002039311e-14</v>
       </c>
       <c r="E15">
-        <v>0.02250909315704638</v>
+        <v>0.019586637927711328</v>
       </c>
       <c r="F15">
-        <v>0.96079788568231461</v>
+        <v>0.97259291485131971</v>
       </c>
       <c r="G15">
-        <v>3.1460192125002378e-14</v>
+        <v>3.1029173002039255e-14</v>
       </c>
       <c r="H15">
-        <v>0.0019110908745361584</v>
+        <v>0.00079474653080317402</v>
       </c>
       <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.2202451459357239e-14</v>
+      </c>
+      <c r="C16">
+        <v>0.0070131781003608031</v>
+      </c>
+      <c r="D16">
+        <v>2.2202451459357239e-14</v>
+      </c>
+      <c r="E16">
+        <v>0.018314192972039296</v>
+      </c>
+      <c r="F16">
+        <v>0.97387725033392614</v>
+      </c>
+      <c r="G16">
+        <v>2.2202451459357239e-14</v>
+      </c>
+      <c r="H16">
+        <v>0.00079537859360714121</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.2203524240205804e-14</v>
+      </c>
+      <c r="C17">
+        <v>0.0080520891819996256</v>
+      </c>
+      <c r="D17">
+        <v>2.2203524240205804e-14</v>
+      </c>
+      <c r="E17">
+        <v>0.014767613492672155</v>
+      </c>
+      <c r="F17">
+        <v>0.97634180240394031</v>
+      </c>
+      <c r="G17">
+        <v>2.2203524240205804e-14</v>
+      </c>
+      <c r="H17">
+        <v>0.0008384949213211632</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.47112396920211508</v>
+      </c>
+      <c r="C18">
+        <v>0.046807555550953922</v>
+      </c>
+      <c r="D18">
+        <v>0.0037708551114809942</v>
+      </c>
+      <c r="E18">
+        <v>0.15597283746064938</v>
+      </c>
+      <c r="F18">
+        <v>0.012215236884836261</v>
+      </c>
+      <c r="G18">
+        <v>0.0037708551114812475</v>
+      </c>
+      <c r="H18">
+        <v>0.30633869067848307</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.6766039268380425e-14</v>
+      </c>
+      <c r="C19">
+        <v>0.0055276994105068122</v>
+      </c>
+      <c r="D19">
+        <v>2.7657969679590788e-14</v>
+      </c>
+      <c r="E19">
+        <v>0.023309660793140188</v>
+      </c>
+      <c r="F19">
+        <v>0.97046281401697221</v>
+      </c>
+      <c r="G19">
+        <v>2.7657969679590804e-14</v>
+      </c>
+      <c r="H19">
+        <v>0.00069982577929874668</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2.2203371300907419e-14</v>
+      </c>
+      <c r="C20">
+        <v>0.0079895908514780768</v>
+      </c>
+      <c r="D20">
+        <v>2.2203371300907419e-14</v>
+      </c>
+      <c r="E20">
+        <v>0.023127139375787208</v>
+      </c>
+      <c r="F20">
+        <v>0.96500061633582945</v>
+      </c>
+      <c r="G20">
+        <v>2.2203371300907419e-14</v>
+      </c>
+      <c r="H20">
+        <v>0.0038826534368385903</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2.219922914861236e-14</v>
+      </c>
+      <c r="C21">
+        <v>0.0010890917222884837</v>
+      </c>
+      <c r="D21">
+        <v>2.219922914861236e-14</v>
+      </c>
+      <c r="E21">
+        <v>0.014789067747127392</v>
+      </c>
+      <c r="F21">
+        <v>0.98376481535119964</v>
+      </c>
+      <c r="G21">
+        <v>2.219922914861236e-14</v>
+      </c>
+      <c r="H21">
+        <v>0.00035702517931797547</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2.2201061003575399e-14</v>
+      </c>
+      <c r="C22">
+        <v>0.0088568433160664279</v>
+      </c>
+      <c r="D22">
+        <v>2.2201061003575399e-14</v>
+      </c>
+      <c r="E22">
+        <v>0.01441629048151152</v>
+      </c>
+      <c r="F22">
+        <v>0.97546011109348463</v>
+      </c>
+      <c r="G22">
+        <v>2.2201061003575399e-14</v>
+      </c>
+      <c r="H22">
+        <v>0.0012667551088707523</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.026430360582501023</v>
+      </c>
+      <c r="C23">
+        <v>0.0046953006377923202</v>
+      </c>
+      <c r="D23">
+        <v>0.0027491891982608218</v>
+      </c>
+      <c r="E23">
+        <v>0.020718284120711909</v>
+      </c>
+      <c r="F23">
+        <v>0.93908807874736466</v>
+      </c>
+      <c r="G23">
+        <v>0.002749189198260827</v>
+      </c>
+      <c r="H23">
+        <v>0.0035695975151085039</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2.2201298318111902e-14</v>
+      </c>
+      <c r="C24">
+        <v>0.0030905919105449265</v>
+      </c>
+      <c r="D24">
+        <v>2.2201298318111902e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.012670363305085234</v>
+      </c>
+      <c r="F24">
+        <v>0.98332543629596147</v>
+      </c>
+      <c r="G24">
+        <v>2.2201298318111902e-14</v>
+      </c>
+      <c r="H24">
+        <v>0.00091360848834176774</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2.2199197984371676e-14</v>
+      </c>
+      <c r="C25">
+        <v>0.0059543141925123017</v>
+      </c>
+      <c r="D25">
+        <v>2.2199197984371676e-14</v>
+      </c>
+      <c r="E25">
+        <v>0.015371176348666683</v>
+      </c>
+      <c r="F25">
+        <v>0.97756493545642764</v>
+      </c>
+      <c r="G25">
+        <v>2.2199197984371676e-14</v>
+      </c>
+      <c r="H25">
+        <v>0.0011095740023268853</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2.2201284542388499e-14</v>
+      </c>
+      <c r="C26">
+        <v>0.003068799323257898</v>
+      </c>
+      <c r="D26">
+        <v>2.2201284542388499e-14</v>
+      </c>
+      <c r="E26">
+        <v>0.012698224592676175</v>
+      </c>
+      <c r="F26">
+        <v>0.98332374003096901</v>
+      </c>
+      <c r="G26">
+        <v>2.2201284542388499e-14</v>
+      </c>
+      <c r="H26">
+        <v>0.00090923605303032439</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2.2247067442813622e-14</v>
+      </c>
+      <c r="C27">
+        <v>0.0051804112722680295</v>
+      </c>
+      <c r="D27">
+        <v>2.2248648475618184e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.022420768042715002</v>
+      </c>
+      <c r="F27">
+        <v>0.97191785285033505</v>
+      </c>
+      <c r="G27">
+        <v>2.2248648475618184e-14</v>
+      </c>
+      <c r="H27">
+        <v>0.00048096783461516355</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.41122728570625461</v>
+      </c>
+      <c r="C28">
+        <v>0.036306042252843132</v>
+      </c>
+      <c r="D28">
+        <v>0.0038429341755296148</v>
+      </c>
+      <c r="E28">
+        <v>0.36987151230636517</v>
+      </c>
+      <c r="F28">
+        <v>0.007970417349150655</v>
+      </c>
+      <c r="G28">
+        <v>0.0038429341755296131</v>
+      </c>
+      <c r="H28">
+        <v>0.16693887403432719</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.52298625164773782</v>
+      </c>
+      <c r="C29">
+        <v>0.0054801432237856079</v>
+      </c>
+      <c r="D29">
+        <v>0.0037930996131466973</v>
+      </c>
+      <c r="E29">
+        <v>0.053913198201228869</v>
+      </c>
+      <c r="F29">
+        <v>0.33543343028367445</v>
+      </c>
+      <c r="G29">
+        <v>0.069003862066544311</v>
+      </c>
+      <c r="H29">
+        <v>0.0093900149638820422</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2.2199581303837271e-14</v>
+      </c>
+      <c r="C30">
+        <v>0.0048048178015502865</v>
+      </c>
+      <c r="D30">
+        <v>2.2199581303837271e-14</v>
+      </c>
+      <c r="E30">
+        <v>0.021467490375065661</v>
+      </c>
+      <c r="F30">
+        <v>0.97300329244182393</v>
+      </c>
+      <c r="G30">
+        <v>2.2199581303837271e-14</v>
+      </c>
+      <c r="H30">
+        <v>0.00072439938149357341</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.42861416939164559</v>
+      </c>
+      <c r="C31">
+        <v>0.005846710797809229</v>
+      </c>
+      <c r="D31">
+        <v>0.0040899826170676225</v>
+      </c>
+      <c r="E31">
+        <v>0.066717285581882502</v>
+      </c>
+      <c r="F31">
+        <v>0.47672109064941348</v>
+      </c>
+      <c r="G31">
+        <v>0.0040899826170676251</v>
+      </c>
+      <c r="H31">
+        <v>0.013920778345113986</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.72228371461849594</v>
+      </c>
+      <c r="C32">
+        <v>0.073533801315874156</v>
+      </c>
+      <c r="D32">
+        <v>0.0039253118995990748</v>
+      </c>
+      <c r="E32">
+        <v>0.087532374538411978</v>
+      </c>
+      <c r="F32">
+        <v>0.01217796971298659</v>
+      </c>
+      <c r="G32">
+        <v>0.0039253118995990679</v>
+      </c>
+      <c r="H32">
+        <v>0.096621516015033146</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2.220090670076376e-14</v>
+      </c>
+      <c r="C33">
+        <v>0.0034431448286859675</v>
+      </c>
+      <c r="D33">
+        <v>2.220090670076376e-14</v>
+      </c>
+      <c r="E33">
+        <v>0.021637682432490306</v>
+      </c>
+      <c r="F33">
+        <v>0.97470064710788007</v>
+      </c>
+      <c r="G33">
+        <v>2.220090670076376e-14</v>
+      </c>
+      <c r="H33">
+        <v>0.00021852563087688436</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2.2201015542869008e-14</v>
+      </c>
+      <c r="C34">
+        <v>0.0064053602389148772</v>
+      </c>
+      <c r="D34">
+        <v>2.2201015542869008e-14</v>
+      </c>
+      <c r="E34">
+        <v>0.023661580878521927</v>
+      </c>
+      <c r="F34">
+        <v>0.96957225269357483</v>
+      </c>
+      <c r="G34">
+        <v>2.2201015542869008e-14</v>
+      </c>
+      <c r="H34">
+        <v>0.00036080618892182559</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2.2202433563072064e-14</v>
+      </c>
+      <c r="C35">
+        <v>0.004851819669952147</v>
+      </c>
+      <c r="D35">
+        <v>2.2202433563072064e-14</v>
+      </c>
+      <c r="E35">
+        <v>0.012741225837695396</v>
+      </c>
+      <c r="F35">
+        <v>0.98187671419804223</v>
+      </c>
+      <c r="G35">
+        <v>2.2202433563072064e-14</v>
+      </c>
+      <c r="H35">
+        <v>0.00053024029424358096</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2.223598107947635e-14</v>
+      </c>
+      <c r="C36">
+        <v>0.0095597142278362208</v>
+      </c>
+      <c r="D36">
+        <v>2.2237152385972049e-14</v>
+      </c>
+      <c r="E36">
+        <v>0.020370011239386882</v>
+      </c>
+      <c r="F36">
+        <v>0.96906356898495949</v>
+      </c>
+      <c r="G36">
+        <v>2.2237152385972043e-14</v>
+      </c>
+      <c r="H36">
+        <v>0.0010067055477507071</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2.2199818641146951e-14</v>
+      </c>
+      <c r="C37">
+        <v>0.0013352272390047485</v>
+      </c>
+      <c r="D37">
+        <v>2.2199818641146951e-14</v>
+      </c>
+      <c r="E37">
+        <v>0.014465933508093028</v>
+      </c>
+      <c r="F37">
+        <v>0.98394832409280586</v>
+      </c>
+      <c r="G37">
+        <v>2.2199818641146951e-14</v>
+      </c>
+      <c r="H37">
+        <v>0.00025051516002972139</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3.4891852049057895e-14</v>
+      </c>
+      <c r="C38">
+        <v>0.0048777510422439449</v>
+      </c>
+      <c r="D38">
+        <v>3.7825916843226218e-14</v>
+      </c>
+      <c r="E38">
+        <v>0.022981201894076396</v>
+      </c>
+      <c r="F38">
+        <v>0.97111696613833121</v>
+      </c>
+      <c r="G38">
+        <v>3.7825916843226212e-14</v>
+      </c>
+      <c r="H38">
+        <v>0.0010240809252378348</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2.2203184126834164e-14</v>
+      </c>
+      <c r="C39">
+        <v>0.0080702700457507669</v>
+      </c>
+      <c r="D39">
+        <v>2.2203184126834164e-14</v>
+      </c>
+      <c r="E39">
+        <v>0.016416065453056111</v>
+      </c>
+      <c r="F39">
+        <v>0.97507761198133758</v>
+      </c>
+      <c r="G39">
+        <v>2.2203184126834164e-14</v>
+      </c>
+      <c r="H39">
+        <v>0.00043605251978898397</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2.2199932665632854e-14</v>
+      </c>
+      <c r="C40">
+        <v>0.0012669842256816969</v>
+      </c>
+      <c r="D40">
+        <v>2.2199932665632854e-14</v>
+      </c>
+      <c r="E40">
+        <v>0.014171932547875573</v>
+      </c>
+      <c r="F40">
+        <v>0.98430068642384927</v>
+      </c>
+      <c r="G40">
+        <v>2.2199932665632854e-14</v>
+      </c>
+      <c r="H40">
+        <v>0.00026039680252679971</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2.2199965206886443e-14</v>
+      </c>
+      <c r="C41">
+        <v>0.0024134437708681943</v>
+      </c>
+      <c r="D41">
+        <v>2.2199965206886443e-14</v>
+      </c>
+      <c r="E41">
+        <v>0.01979645588621258</v>
+      </c>
+      <c r="F41">
+        <v>0.97750482183462017</v>
+      </c>
+      <c r="G41">
+        <v>2.2199965206886443e-14</v>
+      </c>
+      <c r="H41">
+        <v>0.00028527850823247366</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2.2199252527974404e-14</v>
+      </c>
+      <c r="C42">
+        <v>0.0073456234899244447</v>
+      </c>
+      <c r="D42">
+        <v>2.2199252527974404e-14</v>
+      </c>
+      <c r="E42">
+        <v>0.020229496168711763</v>
+      </c>
+      <c r="F42">
+        <v>0.97194626857719291</v>
+      </c>
+      <c r="G42">
+        <v>2.2199252527974404e-14</v>
+      </c>
+      <c r="H42">
+        <v>0.00047861176410425864</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2.2200304948285584e-14</v>
+      </c>
+      <c r="C43">
+        <v>0.0015936724767515839</v>
+      </c>
+      <c r="D43">
+        <v>2.2200304948285584e-14</v>
+      </c>
+      <c r="E43">
+        <v>0.012577016337009535</v>
+      </c>
+      <c r="F43">
+        <v>0.98513976371680201</v>
+      </c>
+      <c r="G43">
+        <v>2.2200304948285584e-14</v>
+      </c>
+      <c r="H43">
+        <v>0.00068954746937042273</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2.3484217332606101e-14</v>
+      </c>
+      <c r="C44">
+        <v>0.012285918628516078</v>
+      </c>
+      <c r="D44">
+        <v>2.3698408475665823e-14</v>
+      </c>
+      <c r="E44">
+        <v>0.021023824934451641</v>
+      </c>
+      <c r="F44">
+        <v>0.96578322573991426</v>
+      </c>
+      <c r="G44">
+        <v>2.369840847566583e-14</v>
+      </c>
+      <c r="H44">
+        <v>0.00090703069704721072</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2.4789070240303892e-14</v>
+      </c>
+      <c r="C45">
+        <v>0.0090493441143897884</v>
+      </c>
+      <c r="D45">
+        <v>2.5261393117299498e-14</v>
+      </c>
+      <c r="E45">
+        <v>0.021860266303224886</v>
+      </c>
+      <c r="F45">
+        <v>0.96812341170066329</v>
+      </c>
+      <c r="G45">
+        <v>2.5261393117299486e-14</v>
+      </c>
+      <c r="H45">
+        <v>0.00096697788164662815</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2.220207847103879e-14</v>
+      </c>
+      <c r="C46">
+        <v>0.0035052406056487518</v>
+      </c>
+      <c r="D46">
+        <v>2.220207847103879e-14</v>
+      </c>
+      <c r="E46">
+        <v>0.011089951630262704</v>
+      </c>
+      <c r="F46">
+        <v>0.98482243508808376</v>
+      </c>
+      <c r="G46">
+        <v>2.220207847103879e-14</v>
+      </c>
+      <c r="H46">
+        <v>0.00058237267593820694</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2.2200630165439224e-14</v>
+      </c>
+      <c r="C47">
+        <v>0.0043277541456833513</v>
+      </c>
+      <c r="D47">
+        <v>2.2200630165439224e-14</v>
+      </c>
+      <c r="E47">
+        <v>0.021847931244069183</v>
+      </c>
+      <c r="F47">
+        <v>0.97305678780793514</v>
+      </c>
+      <c r="G47">
+        <v>2.2200630165439224e-14</v>
+      </c>
+      <c r="H47">
+        <v>0.00076752680224556125</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2.2199378205638353e-14</v>
+      </c>
+      <c r="C48">
+        <v>0.011757684453665164</v>
+      </c>
+      <c r="D48">
+        <v>2.2199378205638353e-14</v>
+      </c>
+      <c r="E48">
+        <v>0.032319511537024906</v>
+      </c>
+      <c r="F48">
+        <v>0.95402017552348239</v>
+      </c>
+      <c r="G48">
+        <v>2.2199378205638353e-14</v>
+      </c>
+      <c r="H48">
+        <v>0.0019026284857609969</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2.4789070240303892e-14</v>
+      </c>
+      <c r="C49">
+        <v>0.0090493441143897884</v>
+      </c>
+      <c r="D49">
+        <v>2.5261393117299498e-14</v>
+      </c>
+      <c r="E49">
+        <v>0.021860266303224886</v>
+      </c>
+      <c r="F49">
+        <v>0.96812341170066329</v>
+      </c>
+      <c r="G49">
+        <v>2.5261393117299486e-14</v>
+      </c>
+      <c r="H49">
+        <v>0.00096697788164662815</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2.220072761291674e-14</v>
+      </c>
+      <c r="C50">
+        <v>0.0063665607102519877</v>
+      </c>
+      <c r="D50">
+        <v>2.220072761291674e-14</v>
+      </c>
+      <c r="E50">
+        <v>0.022781563249216118</v>
+      </c>
+      <c r="F50">
+        <v>0.97004849366490919</v>
+      </c>
+      <c r="G50">
+        <v>2.220072761291674e-14</v>
+      </c>
+      <c r="H50">
+        <v>0.00080338237555621314</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2.220327848975352e-14</v>
+      </c>
+      <c r="C51">
+        <v>0.0062460952379896593</v>
+      </c>
+      <c r="D51">
+        <v>2.220327848975352e-14</v>
+      </c>
+      <c r="E51">
+        <v>0.012847288639394364</v>
+      </c>
+      <c r="F51">
+        <v>0.98036103981443112</v>
+      </c>
+      <c r="G51">
+        <v>2.220327848975352e-14</v>
+      </c>
+      <c r="H51">
+        <v>0.00054557630811826266</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.024399714132118517</v>
+      </c>
+      <c r="C52">
+        <v>0.01038194566836336</v>
+      </c>
+      <c r="D52">
+        <v>0.0024595562776358743</v>
+      </c>
+      <c r="E52">
+        <v>0.021362160241106456</v>
+      </c>
+      <c r="F52">
+        <v>0.93602684842557282</v>
+      </c>
+      <c r="G52">
+        <v>0.0024595562776361566</v>
+      </c>
+      <c r="H52">
+        <v>0.0029102189775668461</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.029325067931595897</v>
+      </c>
+      <c r="C53">
+        <v>0.012864874431743318</v>
+      </c>
+      <c r="D53">
+        <v>0.0027279148785258989</v>
+      </c>
+      <c r="E53">
+        <v>0.018296965915122192</v>
+      </c>
+      <c r="F53">
+        <v>0.93064562141991436</v>
+      </c>
+      <c r="G53">
+        <v>0.0027279148785258984</v>
+      </c>
+      <c r="H53">
+        <v>0.0034116405445723378</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2.2201385006730116e-14</v>
+      </c>
+      <c r="C54">
+        <v>0.0033335689533597708</v>
+      </c>
+      <c r="D54">
+        <v>2.2201385006730116e-14</v>
+      </c>
+      <c r="E54">
+        <v>0.015362315155569012</v>
+      </c>
+      <c r="F54">
+        <v>0.98087099894005136</v>
+      </c>
+      <c r="G54">
+        <v>2.2201385006730116e-14</v>
+      </c>
+      <c r="H54">
+        <v>0.00043311695095315297</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2.6800859299959339e-14</v>
+      </c>
+      <c r="C55">
+        <v>0.0055089295731272706</v>
+      </c>
+      <c r="D55">
+        <v>2.7693949379486936e-14</v>
+      </c>
+      <c r="E55">
+        <v>0.018777545540216989</v>
+      </c>
+      <c r="F55">
+        <v>0.97523324006556356</v>
+      </c>
+      <c r="G55">
+        <v>2.7693949379486927e-14</v>
+      </c>
+      <c r="H55">
+        <v>0.00048028482101003452</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2.2204421408873838e-14</v>
+      </c>
+      <c r="C56">
+        <v>0.0026306056746396517</v>
+      </c>
+      <c r="D56">
+        <v>2.2204421408873838e-14</v>
+      </c>
+      <c r="E56">
+        <v>0.022096177665480859</v>
+      </c>
+      <c r="F56">
+        <v>0.97465022300665682</v>
+      </c>
+      <c r="G56">
+        <v>2.2204421408873838e-14</v>
+      </c>
+      <c r="H56">
+        <v>0.00062299365315612051</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2.2202029055350359e-14</v>
+      </c>
+      <c r="C57">
+        <v>0.0039229452491394146</v>
+      </c>
+      <c r="D57">
+        <v>2.2202029055350359e-14</v>
+      </c>
+      <c r="E57">
+        <v>0.011995883536769607</v>
+      </c>
+      <c r="F57">
+        <v>0.98344332587579752</v>
+      </c>
+      <c r="G57">
+        <v>2.2202029055350359e-14</v>
+      </c>
+      <c r="H57">
+        <v>0.00063784533822695052</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.083524275499724299</v>
+      </c>
+      <c r="C58">
+        <v>0.011210961541717227</v>
+      </c>
+      <c r="D58">
+        <v>0.0038477100132336957</v>
+      </c>
+      <c r="E58">
+        <v>0.060371386896484143</v>
+      </c>
+      <c r="F58">
+        <v>0.83303202952838584</v>
+      </c>
+      <c r="G58">
+        <v>0.0038477100132336913</v>
+      </c>
+      <c r="H58">
+        <v>0.0041659265072209895</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2.7824875017235634e-14</v>
+      </c>
+      <c r="C59">
+        <v>0.012672690076660519</v>
+      </c>
+      <c r="D59">
+        <v>2.8968442280032032e-14</v>
+      </c>
+      <c r="E59">
+        <v>0.031400025247302982</v>
+      </c>
+      <c r="F59">
+        <v>0.95488832194685636</v>
+      </c>
+      <c r="G59">
+        <v>2.8968442280032051e-14</v>
+      </c>
+      <c r="H59">
+        <v>0.0010389627290942809</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2.2202028992207717e-14</v>
+      </c>
+      <c r="C60">
+        <v>0.0061374071405269391</v>
+      </c>
+      <c r="D60">
+        <v>2.2202028992207717e-14</v>
+      </c>
+      <c r="E60">
+        <v>0.017085897699635935</v>
+      </c>
+      <c r="F60">
+        <v>0.97605615382226274</v>
+      </c>
+      <c r="G60">
+        <v>2.2202028992207717e-14</v>
+      </c>
+      <c r="H60">
+        <v>0.00072054133750773617</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3.1396385575742784e-14</v>
+      </c>
+      <c r="C61">
+        <v>0.010300676535574111</v>
+      </c>
+      <c r="D61">
+        <v>3.3406639995885603e-14</v>
+      </c>
+      <c r="E61">
+        <v>0.031938745820580469</v>
+      </c>
+      <c r="F61">
+        <v>0.95710468001745053</v>
+      </c>
+      <c r="G61">
+        <v>3.3406639995885597e-14</v>
+      </c>
+      <c r="H61">
+        <v>0.00065589762629672012</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2.3484217332606101e-14</v>
+      </c>
+      <c r="C62">
+        <v>0.012285918628516078</v>
+      </c>
+      <c r="D62">
+        <v>2.3698408475665823e-14</v>
+      </c>
+      <c r="E62">
+        <v>0.021023824934451641</v>
+      </c>
+      <c r="F62">
+        <v>0.96578322573991426</v>
+      </c>
+      <c r="G62">
+        <v>2.369840847566583e-14</v>
+      </c>
+      <c r="H62">
+        <v>0.00090703069704721072</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2.2199939079544289e-14</v>
+      </c>
+      <c r="C63">
+        <v>0.0072674950316033819</v>
+      </c>
+      <c r="D63">
+        <v>2.2199939079544289e-14</v>
+      </c>
+      <c r="E63">
+        <v>0.015676270629749946</v>
+      </c>
+      <c r="F63">
+        <v>0.97616612824072191</v>
+      </c>
+      <c r="G63">
+        <v>2.2199939079544289e-14</v>
+      </c>
+      <c r="H63">
+        <v>0.00089010609785810562</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2.2202037014612227e-14</v>
+      </c>
+      <c r="C64">
+        <v>0.0033132164953680742</v>
+      </c>
+      <c r="D64">
+        <v>2.2202037014612227e-14</v>
+      </c>
+      <c r="E64">
+        <v>0.0096974924654416473</v>
+      </c>
+      <c r="F64">
+        <v>0.98639161743237902</v>
+      </c>
+      <c r="G64">
+        <v>2.2202037014612227e-14</v>
+      </c>
+      <c r="H64">
+        <v>0.00059767360674469925</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2.2201848295836346e-14</v>
+      </c>
+      <c r="C65">
+        <v>0.0061037955578207544</v>
+      </c>
+      <c r="D65">
+        <v>2.2201848295836346e-14</v>
+      </c>
+      <c r="E65">
+        <v>0.012398491571829868</v>
+      </c>
+      <c r="F65">
+        <v>0.98067773280224779</v>
+      </c>
+      <c r="G65">
+        <v>2.2201848295836346e-14</v>
+      </c>
+      <c r="H65">
+        <v>0.00081998006803485173</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.026467048460622578</v>
+      </c>
+      <c r="C66">
+        <v>0.0044884621657180473</v>
+      </c>
+      <c r="D66">
+        <v>0.0027513813424333553</v>
+      </c>
+      <c r="E66">
+        <v>0.024750997825933201</v>
+      </c>
+      <c r="F66">
+        <v>0.9357153623371588</v>
+      </c>
+      <c r="G66">
+        <v>0.0027513813424333549</v>
+      </c>
+      <c r="H66">
+        <v>0.0030753665257006379</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2.2199754528139864e-14</v>
+      </c>
+      <c r="C67">
+        <v>0.0018228562867287311</v>
+      </c>
+      <c r="D67">
+        <v>2.2199754528139864e-14</v>
+      </c>
+      <c r="E67">
+        <v>0.01219593196128347</v>
+      </c>
+      <c r="F67">
+        <v>0.9857027285100175</v>
+      </c>
+      <c r="G67">
+        <v>2.2199754528139864e-14</v>
+      </c>
+      <c r="H67">
+        <v>0.00027848324190368691</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2.220094754025731e-14</v>
+      </c>
+      <c r="C68">
+        <v>0.0044641131428858529</v>
+      </c>
+      <c r="D68">
+        <v>2.220094754025731e-14</v>
+      </c>
+      <c r="E68">
+        <v>0.037518481275760733</v>
+      </c>
+      <c r="F68">
+        <v>0.95740367671487792</v>
+      </c>
+      <c r="G68">
+        <v>2.220094754025731e-14</v>
+      </c>
+      <c r="H68">
+        <v>0.00061372886640903991</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2.7229327793396899e-14</v>
+      </c>
+      <c r="C69">
+        <v>0.00381939290048926</v>
+      </c>
+      <c r="D69">
+        <v>2.8230983774548661e-14</v>
+      </c>
+      <c r="E69">
+        <v>0.034117661431116122</v>
+      </c>
+      <c r="F69">
+        <v>0.96164752413198584</v>
+      </c>
+      <c r="G69">
+        <v>2.8230983774548311e-14</v>
+      </c>
+      <c r="H69">
+        <v>0.00041542153632512122</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2.2236285853353113e-14</v>
+      </c>
+      <c r="C70">
+        <v>0.0046206213979497028</v>
+      </c>
+      <c r="D70">
+        <v>2.2237465084282748e-14</v>
+      </c>
+      <c r="E70">
+        <v>0.020079170099702857</v>
+      </c>
+      <c r="F70">
+        <v>0.97482233290705522</v>
+      </c>
+      <c r="G70">
+        <v>2.2237465084282748e-14</v>
+      </c>
+      <c r="H70">
+        <v>0.00047787559522546787</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2.9030234974580408e-14</v>
+      </c>
+      <c r="C71">
+        <v>0.0087480098949260839</v>
+      </c>
+      <c r="D71">
+        <v>3.0450131825821223e-14</v>
+      </c>
+      <c r="E71">
+        <v>0.023376727493623347</v>
+      </c>
+      <c r="F71">
+        <v>0.96691572682441596</v>
+      </c>
+      <c r="G71">
+        <v>3.0450131825821229e-14</v>
+      </c>
+      <c r="H71">
+        <v>0.00095953578694466521</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2.2892067788765542e-14</v>
+      </c>
+      <c r="C72">
+        <v>0.0031447705220688758</v>
+      </c>
+      <c r="D72">
+        <v>2.2992277120896056e-14</v>
+      </c>
+      <c r="E72">
+        <v>0.015507476894000897</v>
+      </c>
+      <c r="F72">
+        <v>0.98105216258662509</v>
+      </c>
+      <c r="G72">
+        <v>2.2992277120896227e-14</v>
+      </c>
+      <c r="H72">
+        <v>0.00029558999723627665</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2.220129627398592e-14</v>
+      </c>
+      <c r="C73">
+        <v>0.0038539583234237862</v>
+      </c>
+      <c r="D73">
+        <v>2.220129627398592e-14</v>
+      </c>
+      <c r="E73">
+        <v>0.015736898033438741</v>
+      </c>
+      <c r="F73">
+        <v>0.97950138813000875</v>
+      </c>
+      <c r="G73">
+        <v>2.220129627398592e-14</v>
+      </c>
+      <c r="H73">
+        <v>0.00090775551306215038</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2.2202573163418232e-14</v>
+      </c>
+      <c r="C74">
+        <v>0.0056673871421963149</v>
+      </c>
+      <c r="D74">
+        <v>2.2202573163418232e-14</v>
+      </c>
+      <c r="E74">
+        <v>0.014165723972367154</v>
+      </c>
+      <c r="F74">
+        <v>0.97922759213428123</v>
+      </c>
+      <c r="G74">
+        <v>2.2202573163418232e-14</v>
+      </c>
+      <c r="H74">
+        <v>0.00093929675108861454</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2.2199864740356144e-14</v>
+      </c>
+      <c r="C75">
+        <v>0.0017856722872059514</v>
+      </c>
+      <c r="D75">
+        <v>2.2199864740356144e-14</v>
+      </c>
+      <c r="E75">
+        <v>0.017734905862777095</v>
+      </c>
+      <c r="F75">
+        <v>0.98017805231384281</v>
+      </c>
+      <c r="G75">
+        <v>2.2199864740356144e-14</v>
+      </c>
+      <c r="H75">
+        <v>0.00030136953610759821</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2.3122548694101809e-14</v>
+      </c>
+      <c r="C76">
+        <v>0.0044481521432700663</v>
+      </c>
+      <c r="D76">
+        <v>2.3262141885752604e-14</v>
+      </c>
+      <c r="E76">
+        <v>0.01299663532919975</v>
+      </c>
+      <c r="F76">
+        <v>0.98191467786688558</v>
+      </c>
+      <c r="G76">
+        <v>2.3262141885752585e-14</v>
+      </c>
+      <c r="H76">
+        <v>0.00064053466057499933</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2.2202087718912608e-14</v>
+      </c>
+      <c r="C77">
+        <v>0.0048147894357457935</v>
+      </c>
+      <c r="D77">
+        <v>2.2202087718912608e-14</v>
+      </c>
+      <c r="E77">
+        <v>0.015112098026198858</v>
+      </c>
+      <c r="F77">
+        <v>0.97964742179081166</v>
+      </c>
+      <c r="G77">
+        <v>2.2202087718912608e-14</v>
+      </c>
+      <c r="H77">
+        <v>0.00042569074717699161</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2.2202060659040692e-14</v>
+      </c>
+      <c r="C78">
+        <v>0.0033298810159840498</v>
+      </c>
+      <c r="D78">
+        <v>2.2202060659040692e-14</v>
+      </c>
+      <c r="E78">
+        <v>0.0086151159366069773</v>
+      </c>
+      <c r="F78">
+        <v>0.98750946259220762</v>
+      </c>
+      <c r="G78">
+        <v>2.2202060659040692e-14</v>
+      </c>
+      <c r="H78">
+        <v>0.00054554045513473476</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2.2201648271428041e-14</v>
+      </c>
+      <c r="C79">
+        <v>0.0061427785230430947</v>
+      </c>
+      <c r="D79">
+        <v>2.2201648271428041e-14</v>
+      </c>
+      <c r="E79">
+        <v>0.015901441817266097</v>
+      </c>
+      <c r="F79">
+        <v>0.97721705176413365</v>
+      </c>
+      <c r="G79">
+        <v>2.2201648271428041e-14</v>
+      </c>
+      <c r="H79">
+        <v>0.0007387278954905836</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2.2200500385278784e-14</v>
+      </c>
+      <c r="C80">
+        <v>0.0021557401487093055</v>
+      </c>
+      <c r="D80">
+        <v>2.2200500385278784e-14</v>
+      </c>
+      <c r="E80">
+        <v>0.0152023404956</v>
+      </c>
+      <c r="F80">
+        <v>0.9823381864247821</v>
+      </c>
+      <c r="G80">
+        <v>2.2200500385278784e-14</v>
+      </c>
+      <c r="H80">
+        <v>0.00030373293084214758</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2.2199040653665117e-14</v>
+      </c>
+      <c r="C81">
+        <v>0.00055741986486092883</v>
+      </c>
+      <c r="D81">
+        <v>2.2199040653665117e-14</v>
+      </c>
+      <c r="E81">
+        <v>0.0089561384590924175</v>
+      </c>
+      <c r="F81">
+        <v>0.99017780661155208</v>
+      </c>
+      <c r="G81">
+        <v>2.2199040653665117e-14</v>
+      </c>
+      <c r="H81">
+        <v>0.00030863506442788639</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2.220215056977576e-14</v>
+      </c>
+      <c r="C82">
+        <v>0.0034279086424371915</v>
+      </c>
+      <c r="D82">
+        <v>2.220215056977576e-14</v>
+      </c>
+      <c r="E82">
+        <v>0.01378529816409982</v>
+      </c>
+      <c r="F82">
+        <v>0.98082678477886731</v>
+      </c>
+      <c r="G82">
+        <v>2.220215056977576e-14</v>
+      </c>
+      <c r="H82">
+        <v>0.001960008414528959</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2.220191305139429e-14</v>
+      </c>
+      <c r="C83">
+        <v>0.0026657385485183119</v>
+      </c>
+      <c r="D83">
+        <v>2.220191305139429e-14</v>
+      </c>
+      <c r="E83">
+        <v>0.0091427387147415239</v>
+      </c>
+      <c r="F83">
+        <v>0.98715269143319806</v>
+      </c>
+      <c r="G83">
+        <v>2.220191305139429e-14</v>
+      </c>
+      <c r="H83">
+        <v>0.0010388313034754935</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2.220087677823912e-14</v>
+      </c>
+      <c r="C84">
+        <v>0.001177012785102253</v>
+      </c>
+      <c r="D84">
+        <v>2.220087677823912e-14</v>
+      </c>
+      <c r="E84">
+        <v>0.012253091798032934</v>
+      </c>
+      <c r="F84">
+        <v>0.98489148037162144</v>
+      </c>
+      <c r="G84">
+        <v>2.220087677823912e-14</v>
+      </c>
+      <c r="H84">
+        <v>0.001678415045176777</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2.3228886414459323e-14</v>
+      </c>
+      <c r="C85">
+        <v>0.0099853765136312788</v>
+      </c>
+      <c r="D85">
+        <v>2.3392911211003668e-14</v>
+      </c>
+      <c r="E85">
+        <v>0.017783271675700152</v>
+      </c>
+      <c r="F85">
+        <v>0.97123083263398235</v>
+      </c>
+      <c r="G85">
+        <v>2.3392911211003664e-14</v>
+      </c>
+      <c r="H85">
+        <v>0.0010005191766161929</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2.2201809533353675e-14</v>
+      </c>
+      <c r="C86">
+        <v>0.0057781070709618226</v>
+      </c>
+      <c r="D86">
+        <v>2.2201809533353675e-14</v>
+      </c>
+      <c r="E86">
+        <v>0.014207860114104874</v>
+      </c>
+      <c r="F86">
+        <v>0.9794568809377403</v>
+      </c>
+      <c r="G86">
+        <v>2.2201809533353675e-14</v>
+      </c>
+      <c r="H86">
+        <v>0.00055715187712643689</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2.2200291920427497e-14</v>
+      </c>
+      <c r="C87">
+        <v>0.0017195889469059575</v>
+      </c>
+      <c r="D87">
+        <v>2.2200291920427497e-14</v>
+      </c>
+      <c r="E87">
+        <v>0.01269908418421954</v>
+      </c>
+      <c r="F87">
+        <v>0.98529743727842956</v>
+      </c>
+      <c r="G87">
+        <v>2.2200291920427497e-14</v>
+      </c>
+      <c r="H87">
+        <v>0.00028388959037841305</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2.2200780507144941e-14</v>
+      </c>
+      <c r="C88">
+        <v>0.0024657494283812473</v>
+      </c>
+      <c r="D88">
+        <v>2.2200780507144941e-14</v>
+      </c>
+      <c r="E88">
+        <v>0.012636299490301236</v>
+      </c>
+      <c r="F88">
+        <v>0.98453173231935331</v>
+      </c>
+      <c r="G88">
+        <v>2.2200780507144941e-14</v>
+      </c>
+      <c r="H88">
+        <v>0.00036621876189764699</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2.2200146501895461e-14</v>
+      </c>
+      <c r="C89">
+        <v>0.0019152414639207779</v>
+      </c>
+      <c r="D89">
+        <v>2.2200146501895461e-14</v>
+      </c>
+      <c r="E89">
+        <v>0.01611483148602437</v>
+      </c>
+      <c r="F89">
+        <v>0.98172669224952047</v>
+      </c>
+      <c r="G89">
+        <v>2.2200146501895461e-14</v>
+      </c>
+      <c r="H89">
+        <v>0.00024323480046791271</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2.2200510913142788e-14</v>
+      </c>
+      <c r="C90">
+        <v>0.0044590001569100278</v>
+      </c>
+      <c r="D90">
+        <v>2.2200510913142788e-14</v>
+      </c>
+      <c r="E90">
+        <v>0.022023928018301091</v>
+      </c>
+      <c r="F90">
+        <v>0.97295146371514363</v>
+      </c>
+      <c r="G90">
+        <v>2.2200510913142788e-14</v>
+      </c>
+      <c r="H90">
+        <v>0.00056560810957863381</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2.2201690859590002e-14</v>
+      </c>
+      <c r="C91">
+        <v>0.0020390153236955074</v>
+      </c>
+      <c r="D91">
+        <v>2.2201690859590002e-14</v>
+      </c>
+      <c r="E91">
+        <v>0.022320833455022285</v>
+      </c>
+      <c r="F91">
+        <v>0.97525128285861828</v>
+      </c>
+      <c r="G91">
+        <v>2.2201690859590002e-14</v>
+      </c>
+      <c r="H91">
+        <v>0.00038886836259727507</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2.2200700189801997e-14</v>
+      </c>
+      <c r="C92">
+        <v>0.01067483115404288</v>
+      </c>
+      <c r="D92">
+        <v>2.2200700189801997e-14</v>
+      </c>
+      <c r="E92">
+        <v>0.026263725113175991</v>
+      </c>
+      <c r="F92">
+        <v>0.96211473295013183</v>
+      </c>
+      <c r="G92">
+        <v>2.2200700189801997e-14</v>
+      </c>
+      <c r="H92">
+        <v>0.00094671078258270428</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2.2194345947400886e-14</v>
+      </c>
+      <c r="C93">
+        <v>0.00092812010575885767</v>
+      </c>
+      <c r="D93">
+        <v>2.2194345947400886e-14</v>
+      </c>
+      <c r="E93">
+        <v>0.024267989776259463</v>
+      </c>
+      <c r="F93">
+        <v>0.97390500936244462</v>
+      </c>
+      <c r="G93">
+        <v>2.2194345947400886e-14</v>
+      </c>
+      <c r="H93">
+        <v>0.00089888075547064059</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2.2202101695810287e-14</v>
+      </c>
+      <c r="C94">
+        <v>0.0083126718828148167</v>
+      </c>
+      <c r="D94">
+        <v>2.2202101695810287e-14</v>
+      </c>
+      <c r="E94">
+        <v>0.014557719296918771</v>
+      </c>
+      <c r="F94">
+        <v>0.97648654614421793</v>
+      </c>
+      <c r="G94">
+        <v>2.2202101695810287e-14</v>
+      </c>
+      <c r="H94">
+        <v>0.00064306267598188919</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2.2198868054750075e-14</v>
+      </c>
+      <c r="C95">
+        <v>0.0010390973045834883</v>
+      </c>
+      <c r="D95">
+        <v>2.2198868054750075e-14</v>
+      </c>
+      <c r="E95">
+        <v>0.012203309070601662</v>
+      </c>
+      <c r="F95">
+        <v>0.98589330107756878</v>
+      </c>
+      <c r="G95">
+        <v>2.2198868054750075e-14</v>
+      </c>
+      <c r="H95">
+        <v>0.00086429254717949107</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2.2199784356358069e-14</v>
+      </c>
+      <c r="C96">
+        <v>0.0048738814705804418</v>
+      </c>
+      <c r="D96">
+        <v>2.2199784356358069e-14</v>
+      </c>
+      <c r="E96">
+        <v>0.017440488822713301</v>
+      </c>
+      <c r="F96">
+        <v>0.9772203060304181</v>
+      </c>
+      <c r="G96">
+        <v>2.2199784356358069e-14</v>
+      </c>
+      <c r="H96">
+        <v>0.00046532367622162792</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2.2202443851392386e-14</v>
+      </c>
+      <c r="C97">
+        <v>0.0035014019653522854</v>
+      </c>
+      <c r="D97">
+        <v>2.2202443851392386e-14</v>
+      </c>
+      <c r="E97">
+        <v>0.023977702693956746</v>
+      </c>
+      <c r="F97">
+        <v>0.97194154790450715</v>
+      </c>
+      <c r="G97">
+        <v>2.2202443851392386e-14</v>
+      </c>
+      <c r="H97">
+        <v>0.00057934743611717516</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2.2200028028282639e-14</v>
+      </c>
+      <c r="C98">
+        <v>0.0022296399481748007</v>
+      </c>
+      <c r="D98">
+        <v>2.2200028028282639e-14</v>
+      </c>
+      <c r="E98">
+        <v>0.016332293870369646</v>
+      </c>
+      <c r="F98">
+        <v>0.98128058563877385</v>
+      </c>
+      <c r="G98">
+        <v>2.2200028028282639e-14</v>
+      </c>
+      <c r="H98">
+        <v>0.00015748054261520466</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2.2200597259887287e-14</v>
+      </c>
+      <c r="C99">
+        <v>0.0021686344317333474</v>
+      </c>
+      <c r="D99">
+        <v>2.2200597259887287e-14</v>
+      </c>
+      <c r="E99">
+        <v>0.0138030679076911</v>
+      </c>
+      <c r="F99">
+        <v>0.98377783430096355</v>
+      </c>
+      <c r="G99">
+        <v>2.2200597259887287e-14</v>
+      </c>
+      <c r="H99">
+        <v>0.00025046335954532605</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3.4122822749013812e-14</v>
+      </c>
+      <c r="C100">
+        <v>0.0025883422750353114</v>
+      </c>
+      <c r="D100">
+        <v>3.6867171787544867e-14</v>
+      </c>
+      <c r="E100">
+        <v>0.031513558972069818</v>
+      </c>
+      <c r="F100">
+        <v>0.96532610315440526</v>
+      </c>
+      <c r="G100">
+        <v>3.6867171787544874e-14</v>
+      </c>
+      <c r="H100">
+        <v>0.00057199559838179447</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2.2200028028282639e-14</v>
+      </c>
+      <c r="C101">
+        <v>0.0022296399481748007</v>
+      </c>
+      <c r="D101">
+        <v>2.2200028028282639e-14</v>
+      </c>
+      <c r="E101">
+        <v>0.016332293870369646</v>
+      </c>
+      <c r="F101">
+        <v>0.98128058563877385</v>
+      </c>
+      <c r="G101">
+        <v>2.2200028028282639e-14</v>
+      </c>
+      <c r="H101">
+        <v>0.00015748054261520466</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2.2202369376013478e-14</v>
+      </c>
+      <c r="C102">
+        <v>0.0047978834455631482</v>
+      </c>
+      <c r="D102">
+        <v>2.2202369376013478e-14</v>
+      </c>
+      <c r="E102">
+        <v>0.013716754012925859</v>
+      </c>
+      <c r="F102">
+        <v>0.97976454852944972</v>
+      </c>
+      <c r="G102">
+        <v>2.2202369376013478e-14</v>
+      </c>
+      <c r="H102">
+        <v>0.0017208140119947732</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.026017991525259711</v>
+      </c>
+      <c r="C103">
+        <v>0.010290302853435337</v>
+      </c>
+      <c r="D103">
+        <v>0.0025458940772717254</v>
+      </c>
+      <c r="E103">
+        <v>0.022767372148277502</v>
+      </c>
+      <c r="F103">
+        <v>0.93274189704048649</v>
+      </c>
+      <c r="G103">
+        <v>0.0025458940772717289</v>
+      </c>
+      <c r="H103">
+        <v>0.0030906482779975522</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2.2200353684900172e-14</v>
+      </c>
+      <c r="C104">
+        <v>0.0017983311263379655</v>
+      </c>
+      <c r="D104">
+        <v>2.2200353684900172e-14</v>
+      </c>
+      <c r="E104">
+        <v>0.011267915793557343</v>
+      </c>
+      <c r="F104">
+        <v>0.98665127208202852</v>
+      </c>
+      <c r="G104">
+        <v>2.2200353684900172e-14</v>
+      </c>
+      <c r="H104">
+        <v>0.0002824809980096144</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.21376717285870389</v>
+      </c>
+      <c r="C105">
+        <v>0.010007134780918551</v>
+      </c>
+      <c r="D105">
+        <v>0.0041955791396254671</v>
+      </c>
+      <c r="E105">
+        <v>0.046385946085354741</v>
+      </c>
+      <c r="F105">
+        <v>0.71670521166514467</v>
+      </c>
+      <c r="G105">
+        <v>0.0041955791396254766</v>
+      </c>
+      <c r="H105">
+        <v>0.0047433763306272466</v>
+      </c>
+      <c r="I105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2.4427536386809682e-14</v>
+      </c>
+      <c r="C106">
+        <v>0.01254060192887003</v>
+      </c>
+      <c r="D106">
+        <v>2.4828009047563338e-14</v>
+      </c>
+      <c r="E106">
+        <v>0.021888986885699752</v>
+      </c>
+      <c r="F106">
+        <v>0.96446266169348382</v>
+      </c>
+      <c r="G106">
+        <v>2.4828009047563335e-14</v>
+      </c>
+      <c r="H106">
+        <v>0.001107749491872177</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>3.4103604348142577e-14</v>
+      </c>
+      <c r="C107">
+        <v>0.016582046715300496</v>
+      </c>
+      <c r="D107">
+        <v>3.6802568928642933e-14</v>
+      </c>
+      <c r="E107">
+        <v>0.029202178063667629</v>
+      </c>
+      <c r="F107">
+        <v>0.95246949711430817</v>
+      </c>
+      <c r="G107">
+        <v>3.6802568928643331e-14</v>
+      </c>
+      <c r="H107">
+        <v>0.0017462781066159717</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>3.4103604348142577e-14</v>
+      </c>
+      <c r="C108">
+        <v>0.016582046715300496</v>
+      </c>
+      <c r="D108">
+        <v>3.6802568928642933e-14</v>
+      </c>
+      <c r="E108">
+        <v>0.029202178063667629</v>
+      </c>
+      <c r="F108">
+        <v>0.95246949711430817</v>
+      </c>
+      <c r="G108">
+        <v>3.6802568928643331e-14</v>
+      </c>
+      <c r="H108">
+        <v>0.0017462781066159717</v>
+      </c>
+      <c r="I108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.063932803208801653</v>
+      </c>
+      <c r="C109">
+        <v>0.020627811638849577</v>
+      </c>
+      <c r="D109">
+        <v>0.0035901215611746236</v>
+      </c>
+      <c r="E109">
+        <v>0.031227837143509518</v>
+      </c>
+      <c r="F109">
+        <v>0.87286004042000997</v>
+      </c>
+      <c r="G109">
+        <v>0.0035901215611746258</v>
+      </c>
+      <c r="H109">
+        <v>0.0041712644664800326</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3.0654114153906578e-14</v>
+      </c>
+      <c r="C110">
+        <v>0.014191127935963164</v>
+      </c>
+      <c r="D110">
+        <v>3.2467438260093455e-14</v>
+      </c>
+      <c r="E110">
+        <v>0.029730855045746924</v>
+      </c>
+      <c r="F110">
+        <v>0.95507395537235595</v>
+      </c>
+      <c r="G110">
+        <v>3.2467438260093398e-14</v>
+      </c>
+      <c r="H110">
+        <v>0.0010040616458384811</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.030265724960744766</v>
+      </c>
+      <c r="C111">
+        <v>0.012059905330379157</v>
+      </c>
+      <c r="D111">
+        <v>0.0026675438971458295</v>
+      </c>
+      <c r="E111">
+        <v>0.033217730871314091</v>
+      </c>
+      <c r="F111">
+        <v>0.9158295184874069</v>
+      </c>
+      <c r="G111">
+        <v>0.0026675438971458347</v>
+      </c>
+      <c r="H111">
+        <v>0.0032920325558634753</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2.2202519073096164e-14</v>
+      </c>
+      <c r="C112">
+        <v>0.0052780001963511763</v>
+      </c>
+      <c r="D112">
+        <v>2.2202519073096164e-14</v>
+      </c>
+      <c r="E112">
+        <v>0.011143951443387057</v>
+      </c>
+      <c r="F112">
+        <v>0.98257289418514504</v>
+      </c>
+      <c r="G112">
+        <v>2.2202519073096164e-14</v>
+      </c>
+      <c r="H112">
+        <v>0.0010051541750501259</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2.4295741779760607e-14</v>
+      </c>
+      <c r="C113">
+        <v>0.0056001664454678182</v>
+      </c>
+      <c r="D113">
+        <v>2.4658124368270591e-14</v>
+      </c>
+      <c r="E113">
+        <v>0.016351216567113112</v>
+      </c>
+      <c r="F113">
+        <v>0.97757129057387637</v>
+      </c>
+      <c r="G113">
+        <v>2.4658124368270575e-14</v>
+      </c>
+      <c r="H113">
+        <v>0.00047732641346914426</v>
+      </c>
+      <c r="I113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2.2199433776806407e-14</v>
+      </c>
+      <c r="C114">
+        <v>0.00062921377060717984</v>
+      </c>
+      <c r="D114">
+        <v>2.2199433776806407e-14</v>
+      </c>
+      <c r="E114">
+        <v>0.018249345694070992</v>
+      </c>
+      <c r="F114">
+        <v>0.98059704220833133</v>
+      </c>
+      <c r="G114">
+        <v>2.2199433776806407e-14</v>
+      </c>
+      <c r="H114">
+        <v>0.00052439832692402532</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2.2200472774133184e-14</v>
+      </c>
+      <c r="C115">
+        <v>0.0040359028967883615</v>
+      </c>
+      <c r="D115">
+        <v>2.2200472774133184e-14</v>
+      </c>
+      <c r="E115">
+        <v>0.024733659839820985</v>
+      </c>
+      <c r="F115">
+        <v>0.97064560088783347</v>
+      </c>
+      <c r="G115">
+        <v>2.2200472774133184e-14</v>
+      </c>
+      <c r="H115">
+        <v>0.00058483637549044791</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2.4111219596677828e-14</v>
+      </c>
+      <c r="C116">
+        <v>0.0066707648542521812</v>
+      </c>
+      <c r="D116">
+        <v>2.4443642434431161e-14</v>
+      </c>
+      <c r="E116">
+        <v>0.022852542278857749</v>
+      </c>
+      <c r="F116">
+        <v>0.96919607391370211</v>
+      </c>
+      <c r="G116">
+        <v>2.4443642434431439e-14</v>
+      </c>
+      <c r="H116">
+        <v>0.0012806189531149976</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2.2203005182399157e-14</v>
+      </c>
+      <c r="C117">
+        <v>0.0078629028453911527</v>
+      </c>
+      <c r="D117">
+        <v>2.2203005182399157e-14</v>
+      </c>
+      <c r="E117">
+        <v>0.018956657781894197</v>
+      </c>
+      <c r="F117">
+        <v>0.97270191656582761</v>
+      </c>
+      <c r="G117">
+        <v>2.2203005182399157e-14</v>
+      </c>
+      <c r="H117">
+        <v>0.00047852280682046395</v>
+      </c>
+      <c r="I117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2.6406885499805473e-14</v>
+      </c>
+      <c r="C118">
+        <v>0.012904829574670804</v>
+      </c>
+      <c r="D118">
+        <v>2.7226068958240542e-14</v>
+      </c>
+      <c r="E118">
+        <v>0.017138063784998936</v>
+      </c>
+      <c r="F118">
+        <v>0.96836961746914085</v>
+      </c>
+      <c r="G118">
+        <v>2.7226068958240561e-14</v>
+      </c>
+      <c r="H118">
+        <v>0.0015874891711086011</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2.22013187952938e-14</v>
+      </c>
+      <c r="C119">
+        <v>0.0070751564125646395</v>
+      </c>
+      <c r="D119">
+        <v>2.22013187952938e-14</v>
+      </c>
+      <c r="E119">
+        <v>0.016867261492411589</v>
+      </c>
+      <c r="F119">
+        <v>0.97510623402002694</v>
+      </c>
+      <c r="G119">
+        <v>2.22013187952938e-14</v>
+      </c>
+      <c r="H119">
+        <v>0.00095134807493026552</v>
+      </c>
+      <c r="I119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2.2203053117090027e-14</v>
+      </c>
+      <c r="C120">
+        <v>0.0095650212910693821</v>
+      </c>
+      <c r="D120">
+        <v>2.2203053117090027e-14</v>
+      </c>
+      <c r="E120">
+        <v>0.012581848973047552</v>
+      </c>
+      <c r="F120">
+        <v>0.97650738117305658</v>
+      </c>
+      <c r="G120">
+        <v>2.2203053117090027e-14</v>
+      </c>
+      <c r="H120">
+        <v>0.0013457485627599724</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2.7327779135363162e-14</v>
+      </c>
+      <c r="C121">
+        <v>0.010430596824224904</v>
+      </c>
+      <c r="D121">
+        <v>2.8350870550688991e-14</v>
+      </c>
+      <c r="E121">
+        <v>0.021997847400601431</v>
+      </c>
+      <c r="F121">
+        <v>0.96647309185212804</v>
+      </c>
+      <c r="G121">
+        <v>2.8350870550689007e-14</v>
+      </c>
+      <c r="H121">
+        <v>0.0010984639229616184</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2.9844372317530257e-14</v>
+      </c>
+      <c r="C122">
+        <v>0.01478193028601075</v>
+      </c>
+      <c r="D122">
+        <v>3.1460192125004139e-14</v>
+      </c>
+      <c r="E122">
+        <v>0.022509093157049485</v>
+      </c>
+      <c r="F122">
+        <v>0.9607978856823105</v>
+      </c>
+      <c r="G122">
+        <v>3.1460192125004126e-14</v>
+      </c>
+      <c r="H122">
+        <v>0.001911090874536434</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2.2200049705151886e-14</v>
+      </c>
+      <c r="C123">
+        <v>0.0066616466253416867</v>
+      </c>
+      <c r="D123">
+        <v>2.2200049705151886e-14</v>
+      </c>
+      <c r="E123">
+        <v>0.015729330293307579</v>
+      </c>
+      <c r="F123">
+        <v>0.97701418661958228</v>
+      </c>
+      <c r="G123">
+        <v>2.2200049705151886e-14</v>
+      </c>
+      <c r="H123">
+        <v>0.00059483646170171945</v>
+      </c>
+      <c r="I123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2.7327779135363162e-14</v>
+      </c>
+      <c r="C124">
+        <v>0.010430596824224904</v>
+      </c>
+      <c r="D124">
+        <v>2.8350870550688991e-14</v>
+      </c>
+      <c r="E124">
+        <v>0.021997847400601431</v>
+      </c>
+      <c r="F124">
+        <v>0.96647309185212804</v>
+      </c>
+      <c r="G124">
+        <v>2.8350870550689007e-14</v>
+      </c>
+      <c r="H124">
+        <v>0.0010984639229616184</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C125">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D125">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E125">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F125">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G125">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H125">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C126">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D126">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E126">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F126">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G126">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H126">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2.2199131214446714e-14</v>
+      </c>
+      <c r="C127">
+        <v>0.0014316839549418151</v>
+      </c>
+      <c r="D127">
+        <v>2.2199131214446714e-14</v>
+      </c>
+      <c r="E127">
+        <v>0.018525445308577131</v>
+      </c>
+      <c r="F127">
+        <v>0.97855012494384963</v>
+      </c>
+      <c r="G127">
+        <v>2.2199131214446714e-14</v>
+      </c>
+      <c r="H127">
+        <v>0.0014927457925648809</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2.5557885926149268e-14</v>
+      </c>
+      <c r="C128">
+        <v>0.017402335191307593</v>
+      </c>
+      <c r="D128">
+        <v>2.6196676972288298e-14</v>
+      </c>
+      <c r="E128">
+        <v>0.023189964507996787</v>
+      </c>
+      <c r="F128">
+        <v>0.95728534529212284</v>
+      </c>
+      <c r="G128">
+        <v>2.6196676972288279e-14</v>
+      </c>
+      <c r="H128">
+        <v>0.0021223550084948214</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C129">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D129">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E129">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F129">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G129">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H129">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2.2868213772386632e-14</v>
+      </c>
+      <c r="C130">
+        <v>0.010030685050161999</v>
+      </c>
+      <c r="D130">
+        <v>2.2967399161379077e-14</v>
+      </c>
+      <c r="E130">
+        <v>0.015963096016219581</v>
+      </c>
+      <c r="F130">
+        <v>0.97310222503020061</v>
+      </c>
+      <c r="G130">
+        <v>2.296739916137909e-14</v>
+      </c>
+      <c r="H130">
+        <v>0.0009039939033490277</v>
+      </c>
+      <c r="I130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2.2201666706707661e-14</v>
+      </c>
+      <c r="C131">
+        <v>0.0042685644320124205</v>
+      </c>
+      <c r="D131">
+        <v>2.2201666706707661e-14</v>
+      </c>
+      <c r="E131">
+        <v>0.013936722493667123</v>
+      </c>
+      <c r="F131">
+        <v>0.98057718279770822</v>
+      </c>
+      <c r="G131">
+        <v>2.2201666706707661e-14</v>
+      </c>
+      <c r="H131">
+        <v>0.0012175302765454607</v>
+      </c>
+      <c r="I131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C132">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D132">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E132">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F132">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G132">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H132">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2.2508915188664971e-14</v>
+      </c>
+      <c r="C133">
+        <v>0.0065393703502204586</v>
+      </c>
+      <c r="D133">
+        <v>2.2548466127956891e-14</v>
+      </c>
+      <c r="E133">
+        <v>0.019854157116950828</v>
+      </c>
+      <c r="F133">
+        <v>0.97283560553438131</v>
+      </c>
+      <c r="G133">
+        <v>2.2548466127956903e-14</v>
+      </c>
+      <c r="H133">
+        <v>0.00077086699837981062</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2.2200390521396301e-14</v>
+      </c>
+      <c r="C134">
+        <v>0.0044636830232887559</v>
+      </c>
+      <c r="D134">
+        <v>2.2200390521396301e-14</v>
+      </c>
+      <c r="E134">
+        <v>0.013282294101423817</v>
+      </c>
+      <c r="F134">
+        <v>0.98071910636120985</v>
+      </c>
+      <c r="G134">
+        <v>2.2200390521396301e-14</v>
+      </c>
+      <c r="H134">
+        <v>0.0015349165140109144</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C135">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D135">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E135">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F135">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G135">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H135">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="C136">
+        <v>0.0065662828868130237</v>
+      </c>
+      <c r="D136">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="E136">
+        <v>0.014380378088483971</v>
+      </c>
+      <c r="F136">
+        <v>0.97826493422507732</v>
+      </c>
+      <c r="G136">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="H136">
+        <v>0.00078840479955897863</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2.2201733047024828e-14</v>
+      </c>
+      <c r="C137">
+        <v>0.0047064739114530728</v>
+      </c>
+      <c r="D137">
+        <v>2.2201733047024828e-14</v>
+      </c>
+      <c r="E137">
+        <v>0.018209928884735872</v>
+      </c>
+      <c r="F137">
+        <v>0.97651900812042836</v>
+      </c>
+      <c r="G137">
+        <v>2.2201733047024828e-14</v>
+      </c>
+      <c r="H137">
+        <v>0.00056458908331624626</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="C138">
+        <v>0.0065662828868130237</v>
+      </c>
+      <c r="D138">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="E138">
+        <v>0.014380378088483971</v>
+      </c>
+      <c r="F138">
+        <v>0.97826493422507732</v>
+      </c>
+      <c r="G138">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="H138">
+        <v>0.00078840479955897863</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C139">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D139">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E139">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F139">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G139">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H139">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C140">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D140">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E140">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F140">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G140">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H140">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2.2868213772386632e-14</v>
+      </c>
+      <c r="C141">
+        <v>0.010030685050161999</v>
+      </c>
+      <c r="D141">
+        <v>2.2967399161379077e-14</v>
+      </c>
+      <c r="E141">
+        <v>0.015963096016219581</v>
+      </c>
+      <c r="F141">
+        <v>0.97310222503020061</v>
+      </c>
+      <c r="G141">
+        <v>2.296739916137909e-14</v>
+      </c>
+      <c r="H141">
+        <v>0.0009039939033490277</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2.3661038328227418e-14</v>
+      </c>
+      <c r="C142">
+        <v>0.0084649227936618686</v>
+      </c>
+      <c r="D142">
+        <v>2.3904590546053461e-14</v>
+      </c>
+      <c r="E142">
+        <v>0.015833713279266717</v>
+      </c>
+      <c r="F142">
+        <v>0.97400504170845348</v>
+      </c>
+      <c r="G142">
+        <v>2.390459054605348e-14</v>
+      </c>
+      <c r="H142">
+        <v>0.0016963222185465228</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="C143">
+        <v>0.0065662828868130237</v>
+      </c>
+      <c r="D143">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="E143">
+        <v>0.014380378088483971</v>
+      </c>
+      <c r="F143">
+        <v>0.97826493422507732</v>
+      </c>
+      <c r="G143">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="H143">
+        <v>0.00078840479955897863</v>
+      </c>
+      <c r="I143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2.6835829728579398e-14</v>
+      </c>
+      <c r="C144">
+        <v>0.01292821594024177</v>
+      </c>
+      <c r="D144">
+        <v>2.7749943782237975e-14</v>
+      </c>
+      <c r="E144">
+        <v>0.022728610584791493</v>
+      </c>
+      <c r="F144">
+        <v>0.96325555049043055</v>
+      </c>
+      <c r="G144">
+        <v>2.7749943782237953e-14</v>
+      </c>
+      <c r="H144">
+        <v>0.001087622984453879</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2.2200390521396301e-14</v>
+      </c>
+      <c r="C145">
+        <v>0.0044636830232887559</v>
+      </c>
+      <c r="D145">
+        <v>2.2200390521396301e-14</v>
+      </c>
+      <c r="E145">
+        <v>0.013282294101423817</v>
+      </c>
+      <c r="F145">
+        <v>0.98071910636120985</v>
+      </c>
+      <c r="G145">
+        <v>2.2200390521396301e-14</v>
+      </c>
+      <c r="H145">
+        <v>0.0015349165140109144</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C146">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D146">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E146">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F146">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G146">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H146">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2.2201332965052357e-14</v>
+      </c>
+      <c r="C147">
+        <v>0.0028619813181322059</v>
+      </c>
+      <c r="D147">
+        <v>2.2201332965052357e-14</v>
+      </c>
+      <c r="E147">
+        <v>0.010573928816759538</v>
+      </c>
+      <c r="F147">
+        <v>0.98578534688264863</v>
+      </c>
+      <c r="G147">
+        <v>2.2201332965052357e-14</v>
+      </c>
+      <c r="H147">
+        <v>0.00077874298239305635</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="C148">
+        <v>0.0065662828868130237</v>
+      </c>
+      <c r="D148">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="E148">
+        <v>0.014380378088483971</v>
+      </c>
+      <c r="F148">
+        <v>0.97826493422507732</v>
+      </c>
+      <c r="G148">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="H148">
+        <v>0.00078840479955897863</v>
+      </c>
+      <c r="I148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C149">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D149">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E149">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F149">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G149">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H149">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="C150">
+        <v>0.0065662828868130237</v>
+      </c>
+      <c r="D150">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="E150">
+        <v>0.014380378088483971</v>
+      </c>
+      <c r="F150">
+        <v>0.97826493422507732</v>
+      </c>
+      <c r="G150">
+        <v>2.2202837147608418e-14</v>
+      </c>
+      <c r="H150">
+        <v>0.00078840479955897863</v>
+      </c>
+      <c r="I150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C151">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D151">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E151">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F151">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G151">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H151">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="C152">
+        <v>0.0050676028537374644</v>
+      </c>
+      <c r="D152">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="E152">
+        <v>0.0099647402775487181</v>
+      </c>
+      <c r="F152">
+        <v>0.98398558147561421</v>
+      </c>
+      <c r="G152">
+        <v>2.2203005136167718e-14</v>
+      </c>
+      <c r="H152">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2.2202189529023808e-14</v>
+      </c>
+      <c r="C153">
+        <v>0.0094149822236206417</v>
+      </c>
+      <c r="D153">
+        <v>2.2202189529023808e-14</v>
+      </c>
+      <c r="E153">
+        <v>0.01529811026074954</v>
+      </c>
+      <c r="F153">
+        <v>0.97398364744351751</v>
+      </c>
+      <c r="G153">
+        <v>2.2202189529023808e-14</v>
+      </c>
+      <c r="H153">
+        <v>0.0013032600720456085</v>
+      </c>
+      <c r="I153">
         <v>5</v>
       </c>
     </row>
